--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/100ExclusivebetDataDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/100ExclusivebetDataDuplicateGamesList.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="brokenIMG" r:id="rId3" sheetId="1"/>
+    <sheet name="CopyGames" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="799">
   <si>
     <t>1  This game has duplicate Please check it :  Name =  Keno</t>
   </si>
@@ -26,271 +26,271 @@
     <t>4  This game has duplicate Please check it :  Name =  Sugar Skulls</t>
   </si>
   <si>
-    <t>5  This game has duplicate Please check it :  Name =  10p Roulette</t>
-  </si>
-  <si>
-    <t>6  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>7  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>8  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>9  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>10  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>11  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>12  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>13  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>14  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>15  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>16  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>17  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>18  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>19  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>20  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>21  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>22  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>23  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>24  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>25  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>26  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>27  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>28  This game has duplicate Please check it :  Name =  Andar Bahar</t>
-  </si>
-  <si>
-    <t>29  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>30  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>31  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>32  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>33  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>34  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>35  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>36  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>37  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>38  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>39  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>40  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>41  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>42  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>43  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>44  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>45  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>46  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>47  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>48  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>49  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>50  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>51  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>52  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>53  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>54  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>55  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>56  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>57  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>58  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>59  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>60  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>61  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>62  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>63  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>64  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>65  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>66  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>67  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>68  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>69  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>70  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>71  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>72  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>73  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>74  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>75  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>76  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>77  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>78  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>79  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>80  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>81  This game has duplicate Please check it :  Name =  Caribbean Poker</t>
-  </si>
-  <si>
-    <t>82  This game has duplicate Please check it :  Name =  Caribbean Stud Poker</t>
-  </si>
-  <si>
-    <t>83  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
-  </si>
-  <si>
-    <t>84  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
-  </si>
-  <si>
-    <t>85  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
-  </si>
-  <si>
-    <t>86  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>87  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>88  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>89  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
-  </si>
-  <si>
-    <t>90  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
-  </si>
-  <si>
-    <t>91  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
-  </si>
-  <si>
-    <t>92  This game has duplicate Please check it :  Name =  European Blackjack</t>
-  </si>
-  <si>
-    <t>93  This game has duplicate Please check it :  Name =  European Blackjack</t>
+    <t>5  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>6  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>7  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>8  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>9  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>10  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>11  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>12  This game has duplicate Please check it :  Name =  French Roulette</t>
+  </si>
+  <si>
+    <t>13  This game has duplicate Please check it :  Name =  French Roulette</t>
+  </si>
+  <si>
+    <t>14  This game has duplicate Please check it :  Name =  French Roulette</t>
+  </si>
+  <si>
+    <t>15  This game has duplicate Please check it :  Name =  Red Dog</t>
+  </si>
+  <si>
+    <t>16  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>17  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>18  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>19  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>20  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>21  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>22  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>23  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>24  This game has duplicate Please check it :  Name =  Caribbean Stud Poker</t>
+  </si>
+  <si>
+    <t>25  This game has duplicate Please check it :  Name =  Turbo Roulette</t>
+  </si>
+  <si>
+    <t>26  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>27  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>28  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>29  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>30  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>31  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>32  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>33  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>34  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>35  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>36  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>37  This game has duplicate Please check it :  Name =  10p Roulette</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Sic Bo</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Sic Bo</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>44  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>45  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>46  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>47  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>48  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>49  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>50  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>51  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>52  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>53  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>54  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>55  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>56  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>57  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>58  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>59  This game has duplicate Please check it :  Name =  French Roulette</t>
+  </si>
+  <si>
+    <t>60  This game has duplicate Please check it :  Name =  French Roulette</t>
+  </si>
+  <si>
+    <t>61  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
+  </si>
+  <si>
+    <t>62  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
+  </si>
+  <si>
+    <t>63  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
+  </si>
+  <si>
+    <t>64  This game has duplicate Please check it :  Name =  Caribbean Poker</t>
+  </si>
+  <si>
+    <t>65  This game has duplicate Please check it :  Name =  Oasis Poker</t>
+  </si>
+  <si>
+    <t>66  This game has duplicate Please check it :  Name =  Multihand Blackjack</t>
+  </si>
+  <si>
+    <t>67  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>68  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>69  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>70  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>71  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>72  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>73  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>74  This game has duplicate Please check it :  Name =  Pontoon</t>
+  </si>
+  <si>
+    <t>75  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>76  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>77  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>78  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>79  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>80  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>81  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>82  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>83  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>84  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>85  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>86  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>87  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>88  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>89  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>90  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>91  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>92  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>93  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
     <t>94  This game has duplicate Please check it :  Name =  European Roulette</t>
@@ -317,55 +317,55 @@
     <t>101  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
-    <t>102  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>103  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>104  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>105  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>106  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>107  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>108  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>109  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>110  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>111  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>112  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>113  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>114  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>115  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>116  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>117  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>118  This game has duplicate Please check it :  Name =  European Roulette</t>
+    <t>102  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>103  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>104  This game has duplicate Please check it :  Name =  Sic Bo</t>
+  </si>
+  <si>
+    <t>105  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>106  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>107  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>108  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>109  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>110  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>111  This game has duplicate Please check it :  Name =  Gold Roulette</t>
+  </si>
+  <si>
+    <t>112  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>113  This game has duplicate Please check it :  Name =  French Roulette</t>
+  </si>
+  <si>
+    <t>114  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>115  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>116  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>117  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>118  This game has duplicate Please check it :  Name =  American Roulette</t>
   </si>
   <si>
     <t>119  This game has duplicate Please check it :  Name =  European Roulette</t>
@@ -395,43 +395,43 @@
     <t>127  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
-    <t>128  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>129  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>130  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>131  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>132  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>133  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>134  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>135  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>136  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>137  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>138  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>139  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>140  This game has duplicate Please check it :  Name =  European Roulette</t>
+    <t>128  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
+  </si>
+  <si>
+    <t>129  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>130  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>131  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>132  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>133  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>134  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>135  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>136  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>137  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>138  This game has duplicate Please check it :  Name =  European Blackjack</t>
+  </si>
+  <si>
+    <t>139  This game has duplicate Please check it :  Name =  European Blackjack</t>
+  </si>
+  <si>
+    <t>140  This game has duplicate Please check it :  Name =  Andar Bahar</t>
   </si>
   <si>
     <t>141  This game has duplicate Please check it :  Name =  European Roulette</t>
@@ -443,1990 +443,1972 @@
     <t>143  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
-    <t>144  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
-  </si>
-  <si>
-    <t>145  This game has duplicate Please check it :  Name =  French Roulette</t>
-  </si>
-  <si>
-    <t>146  This game has duplicate Please check it :  Name =  French Roulette</t>
-  </si>
-  <si>
-    <t>147  This game has duplicate Please check it :  Name =  French Roulette</t>
-  </si>
-  <si>
-    <t>148  This game has duplicate Please check it :  Name =  French Roulette</t>
-  </si>
-  <si>
-    <t>149  This game has duplicate Please check it :  Name =  French Roulette</t>
-  </si>
-  <si>
-    <t>150  This game has duplicate Please check it :  Name =  French Roulette</t>
-  </si>
-  <si>
-    <t>151  This game has duplicate Please check it :  Name =  Gold Roulette</t>
-  </si>
-  <si>
-    <t>152  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>153  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>154  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>155  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>156  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>157  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>158  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>159  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>160  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>161  This game has duplicate Please check it :  Name =  Multihand Blackjack</t>
-  </si>
-  <si>
-    <t>162  This game has duplicate Please check it :  Name =  Oasis Poker</t>
-  </si>
-  <si>
-    <t>163  This game has duplicate Please check it :  Name =  Pontoon</t>
-  </si>
-  <si>
-    <t>164  This game has duplicate Please check it :  Name =  Red Dog</t>
-  </si>
-  <si>
-    <t>165  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>166  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>167  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>168  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>169  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>170  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>171  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>172  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>173  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>174  This game has duplicate Please check it :  Name =  Sic Bo</t>
-  </si>
-  <si>
-    <t>175  This game has duplicate Please check it :  Name =  Sic Bo</t>
-  </si>
-  <si>
-    <t>176  This game has duplicate Please check it :  Name =  Sic Bo</t>
-  </si>
-  <si>
-    <t>177  This game has duplicate Please check it :  Name =  Turbo Roulette</t>
-  </si>
-  <si>
-    <t>178  This game has duplicate Please check it :  Name =  100 Joker Staxx</t>
-  </si>
-  <si>
-    <t>179  This game has duplicate Please check it :  Name =  40 Joker Staxx</t>
-  </si>
-  <si>
-    <t>180  This game has duplicate Please check it :  Name =  8 Tigers Gold  Megaways™</t>
-  </si>
-  <si>
-    <t>181  This game has duplicate Please check it :  Name =  9 Lions</t>
-  </si>
-  <si>
-    <t>182  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
-  </si>
-  <si>
-    <t>183  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
-  </si>
-  <si>
-    <t>184  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
-  </si>
-  <si>
-    <t>185  This game has duplicate Please check it :  Name =  Absolute Super Reels</t>
-  </si>
-  <si>
-    <t>186  This game has duplicate Please check it :  Name =  Aces &amp; Eights</t>
-  </si>
-  <si>
-    <t>187  This game has duplicate Please check it :  Name =  Aesir Treasures</t>
-  </si>
-  <si>
-    <t>188  This game has duplicate Please check it :  Name =  Aeterna</t>
-  </si>
-  <si>
-    <t>189  This game has duplicate Please check it :  Name =  Age of Athena</t>
-  </si>
-  <si>
-    <t>190  This game has duplicate Please check it :  Name =  Age of Dragons</t>
-  </si>
-  <si>
-    <t>191  This game has duplicate Please check it :  Name =  Age of Hurucan</t>
-  </si>
-  <si>
-    <t>192  This game has duplicate Please check it :  Name =  Age of Ice Dragons</t>
-  </si>
-  <si>
-    <t>193  This game has duplicate Please check it :  Name =  Agent 51</t>
-  </si>
-  <si>
-    <t>194  This game has duplicate Please check it :  Name =  Alice Riches</t>
-  </si>
-  <si>
-    <t>195  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>196  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>197  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>198  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>199  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>200  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>201  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>202  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>203  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>204  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
-  </si>
-  <si>
-    <t>205  This game has duplicate Please check it :  Name =  Amazing Riches</t>
-  </si>
-  <si>
-    <t>206  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>207  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>208  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>209  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>210  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>211  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>212  This game has duplicate Please check it :  Name =  Ancient Riches Casino Red Hot Firepot</t>
-  </si>
-  <si>
-    <t>213  This game has duplicate Please check it :  Name =  Apollo Pays</t>
-  </si>
-  <si>
-    <t>214  This game has duplicate Please check it :  Name =  Astro Pandas</t>
-  </si>
-  <si>
-    <t>215  This game has duplicate Please check it :  Name =  Aurora</t>
-  </si>
-  <si>
-    <t>216  This game has duplicate Please check it :  Name =  Aztec Palace</t>
-  </si>
-  <si>
-    <t>217  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>218  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>219  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>220  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>221  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>222  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>223  This game has duplicate Please check it :  Name =  Baccarat Deluxe</t>
-  </si>
-  <si>
-    <t>224  This game has duplicate Please check it :  Name =  Barbarian Fury</t>
-  </si>
-  <si>
-    <t>225  This game has duplicate Please check it :  Name =  Barnyard Twister</t>
-  </si>
-  <si>
-    <t>226  This game has duplicate Please check it :  Name =  BARs&amp;7s</t>
-  </si>
-  <si>
-    <t>227  This game has duplicate Please check it :  Name =  Battle for Cosmos</t>
-  </si>
-  <si>
-    <t>228  This game has duplicate Please check it :  Name =  Battle Maidens Cleopatra</t>
-  </si>
-  <si>
-    <t>229  This game has duplicate Please check it :  Name =  Beach Party Hot</t>
-  </si>
-  <si>
-    <t>230  This game has duplicate Please check it :  Name =  Beers on Reels</t>
-  </si>
-  <si>
-    <t>231  This game has duplicate Please check it :  Name =  Bell Wizard</t>
-  </si>
-  <si>
-    <t>232  This game has duplicate Please check it :  Name =  Bier Party</t>
-  </si>
-  <si>
-    <t>233  This game has duplicate Please check it :  Name =  Big Apple Wins</t>
-  </si>
-  <si>
-    <t>234  This game has duplicate Please check it :  Name =  Big Bad Wolf Megaways™</t>
-  </si>
-  <si>
-    <t>235  This game has duplicate Please check it :  Name =  Big Bounty Bill</t>
-  </si>
-  <si>
-    <t>236  This game has duplicate Please check it :  Name =  Bikini Paradise</t>
-  </si>
-  <si>
-    <t>237  This game has duplicate Please check it :  Name =  Black Hawk Deluxe</t>
-  </si>
-  <si>
-    <t>238  This game has duplicate Please check it :  Name =  Black Horse Deluxe</t>
-  </si>
-  <si>
-    <t>239  This game has duplicate Please check it :  Name =  Black Horse™</t>
+    <t>144  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>145  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>146  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>147  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>148  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>149  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>150  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>151  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>152  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>153  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>154  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>155  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>156  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>157  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>158  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>159  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>160  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>161  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>162  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>163  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>164  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>165  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>166  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>167  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>168  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>169  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>170  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>171  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>172  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>173  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>174  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>175  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>176  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>177  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>178  This game has duplicate Please check it :  Name =  Mega Gems</t>
+  </si>
+  <si>
+    <t>179  This game has duplicate Please check it :  Name =  Mr. Vegas</t>
+  </si>
+  <si>
+    <t>180  This game has duplicate Please check it :  Name =  Slots Angels</t>
+  </si>
+  <si>
+    <t>181  This game has duplicate Please check it :  Name =  Enchanted</t>
+  </si>
+  <si>
+    <t>182  This game has duplicate Please check it :  Name =  Deep Sea</t>
+  </si>
+  <si>
+    <t>183  This game has duplicate Please check it :  Name =  Cool Buck</t>
+  </si>
+  <si>
+    <t>184  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>185  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>186  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>187  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>188  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
+  </si>
+  <si>
+    <t>189  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
+  </si>
+  <si>
+    <t>190  This game has duplicate Please check it :  Name =  Keno</t>
+  </si>
+  <si>
+    <t>191  This game has duplicate Please check it :  Name =  Gold Coins</t>
+  </si>
+  <si>
+    <t>192  This game has duplicate Please check it :  Name =  Lucky Keno</t>
+  </si>
+  <si>
+    <t>193  This game has duplicate Please check it :  Name =  Jingle Up</t>
+  </si>
+  <si>
+    <t>194  This game has duplicate Please check it :  Name =  Epic Gems</t>
+  </si>
+  <si>
+    <t>195  This game has duplicate Please check it :  Name =  Spinlotto</t>
+  </si>
+  <si>
+    <t>196  This game has duplicate Please check it :  Name =  Boss The Lotto</t>
+  </si>
+  <si>
+    <t>197  This game has duplicate Please check it :  Name =  Rio Bingo</t>
+  </si>
+  <si>
+    <t>198  This game has duplicate Please check it :  Name =  Wild West</t>
+  </si>
+  <si>
+    <t>199  This game has duplicate Please check it :  Name =  Wild West</t>
+  </si>
+  <si>
+    <t>200  This game has duplicate Please check it :  Name =  Cash Cuisine</t>
+  </si>
+  <si>
+    <t>201  This game has duplicate Please check it :  Name =  Fruit Basket</t>
+  </si>
+  <si>
+    <t>202  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>203  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>204  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>205  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>206  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>207  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>208  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>209  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>210  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>211  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>212  This game has duplicate Please check it :  Name =  Baccarat Deluxe</t>
+  </si>
+  <si>
+    <t>213  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>214  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>215  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>216  This game has duplicate Please check it :  Name =  Double Double Bonus</t>
+  </si>
+  <si>
+    <t>217  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>218  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>219  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>220  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>221  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>222  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>223  This game has duplicate Please check it :  Name =  Aces &amp; Eights</t>
+  </si>
+  <si>
+    <t>224  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>225  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>226  This game has duplicate Please check it :  Name =  Craps</t>
+  </si>
+  <si>
+    <t>227  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>228  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>229  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>230  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>231  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>232  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>233  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>234  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>235  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>236  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+  </si>
+  <si>
+    <t>237  This game has duplicate Please check it :  Name =  European Blackjack</t>
+  </si>
+  <si>
+    <t>238  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>239  This game has duplicate Please check it :  Name =  Blackjack</t>
   </si>
   <si>
     <t>240  This game has duplicate Please check it :  Name =  Blackjack</t>
   </si>
   <si>
-    <t>241  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>242  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>243  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>244  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>245  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>246  This game has duplicate Please check it :  Name =  Blazzing Bull 2</t>
-  </si>
-  <si>
-    <t>247  This game has duplicate Please check it :  Name =  Blirix's Workshop</t>
-  </si>
-  <si>
-    <t>248  This game has duplicate Please check it :  Name =  Blood Moon Express</t>
-  </si>
-  <si>
-    <t>249  This game has duplicate Please check it :  Name =  Bloodshot: Rising Spirit</t>
-  </si>
-  <si>
-    <t>250  This game has duplicate Please check it :  Name =  Bonnie &amp; Clyde</t>
-  </si>
-  <si>
-    <t>251  This game has duplicate Please check it :  Name =  Bonus Deuces Wild</t>
-  </si>
-  <si>
-    <t>252  This game has duplicate Please check it :  Name =  Bonus Poker</t>
-  </si>
-  <si>
-    <t>253  This game has duplicate Please check it :  Name =  Bonus Poker Deluxe</t>
-  </si>
-  <si>
-    <t>254  This game has duplicate Please check it :  Name =  Book Of Ba'al</t>
-  </si>
-  <si>
-    <t>255  This game has duplicate Please check it :  Name =  Book of Duat</t>
-  </si>
-  <si>
-    <t>256  This game has duplicate Please check it :  Name =  Book of Gems Megaways</t>
-  </si>
-  <si>
-    <t>257  This game has duplicate Please check it :  Name =  Book of Gold Double Chance</t>
-  </si>
-  <si>
-    <t>258  This game has duplicate Please check it :  Name =  Book of Gold: Classic</t>
-  </si>
-  <si>
-    <t>259  This game has duplicate Please check it :  Name =  Book of Gold: Symbol Choice</t>
-  </si>
-  <si>
-    <t>260  This game has duplicate Please check it :  Name =  Book of Shadows</t>
-  </si>
-  <si>
-    <t>261  This game has duplicate Please check it :  Name =  Book of Spells</t>
-  </si>
-  <si>
-    <t>262  This game has duplicate Please check it :  Name =  Booming Bananas</t>
-  </si>
-  <si>
-    <t>263  This game has duplicate Please check it :  Name =  Booming Bars</t>
-  </si>
-  <si>
-    <t>264  This game has duplicate Please check it :  Name =  Boss The Lotto</t>
-  </si>
-  <si>
-    <t>265  This game has duplicate Please check it :  Name =  Buffalo Hunter</t>
-  </si>
-  <si>
-    <t>266  This game has duplicate Please check it :  Name =  Burning Diamonds</t>
-  </si>
-  <si>
-    <t>267  This game has duplicate Please check it :  Name =  Burning Reels</t>
-  </si>
-  <si>
-    <t>268  This game has duplicate Please check it :  Name =  Burning Stars 3</t>
-  </si>
-  <si>
-    <t>269  This game has duplicate Please check it :  Name =  Burning Wins</t>
-  </si>
-  <si>
-    <t>270  This game has duplicate Please check it :  Name =  Bushido Ways xNudge</t>
-  </si>
-  <si>
-    <t>271  This game has duplicate Please check it :  Name =  Butterfly Lovers</t>
-  </si>
-  <si>
-    <t>272  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>273  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>274  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>275  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>276  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>277  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>278  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>279  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>280  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>281  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
-  </si>
-  <si>
-    <t>282  This game has duplicate Please check it :  Name =  Caesar's Glory</t>
-  </si>
-  <si>
-    <t>283  This game has duplicate Please check it :  Name =  Cai Yuan Guang Jin</t>
-  </si>
-  <si>
-    <t>284  This game has duplicate Please check it :  Name =  Caishen Wins</t>
-  </si>
-  <si>
-    <t>285  This game has duplicate Please check it :  Name =  Candy Burst</t>
-  </si>
-  <si>
-    <t>286  This game has duplicate Please check it :  Name =  Caribbean Anne 2</t>
-  </si>
-  <si>
-    <t>287  This game has duplicate Please check it :  Name =  Cash Cuisine</t>
-  </si>
-  <si>
-    <t>288  This game has duplicate Please check it :  Name =  Cash Truck</t>
-  </si>
-  <si>
-    <t>289  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
-  </si>
-  <si>
-    <t>290  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
-  </si>
-  <si>
-    <t>291  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
-  </si>
-  <si>
-    <t>292  This game has duplicate Please check it :  Name =  Casino Win Spin</t>
-  </si>
-  <si>
-    <t>293  This game has duplicate Please check it :  Name =  Charms &amp; Clovers</t>
-  </si>
-  <si>
-    <t>294  This game has duplicate Please check it :  Name =  Cheeky Monkeys</t>
-  </si>
-  <si>
-    <t>295  This game has duplicate Please check it :  Name =  Cheshire Wild</t>
-  </si>
-  <si>
-    <t>296  This game has duplicate Please check it :  Name =  Christmas Deal</t>
-  </si>
-  <si>
-    <t>297  This game has duplicate Please check it :  Name =  Christmas Megaways</t>
-  </si>
-  <si>
-    <t>298  This game has duplicate Please check it :  Name =  Classic Fruits</t>
-  </si>
-  <si>
-    <t>299  This game has duplicate Please check it :  Name =  Classico</t>
-  </si>
-  <si>
-    <t>300  This game has duplicate Please check it :  Name =  Clover Lady</t>
-  </si>
-  <si>
-    <t>301  This game has duplicate Please check it :  Name =  Coin Conqueror</t>
-  </si>
-  <si>
-    <t>302  This game has duplicate Please check it :  Name =  Coins of fortune</t>
-  </si>
-  <si>
-    <t>303  This game has duplicate Please check it :  Name =  Colin The Cat™</t>
-  </si>
-  <si>
-    <t>304  This game has duplicate Please check it :  Name =  Colossal Vikings</t>
-  </si>
-  <si>
-    <t>305  This game has duplicate Please check it :  Name =  Cool Buck</t>
-  </si>
-  <si>
-    <t>306  This game has duplicate Please check it :  Name =  Corrida Romance Deluxe</t>
-  </si>
-  <si>
-    <t>307  This game has duplicate Please check it :  Name =  Cosmic Charms</t>
-  </si>
-  <si>
-    <t>308  This game has duplicate Please check it :  Name =  Craps</t>
-  </si>
-  <si>
-    <t>309  This game has duplicate Please check it :  Name =  Crazy Bananas</t>
-  </si>
-  <si>
-    <t>310  This game has duplicate Please check it :  Name =  Crazy Cars</t>
-  </si>
-  <si>
-    <t>311  This game has duplicate Please check it :  Name =  Crystal Ball</t>
-  </si>
-  <si>
-    <t>312  This game has duplicate Please check it :  Name =  Crystal Cavern</t>
-  </si>
-  <si>
-    <t>313  This game has duplicate Please check it :  Name =  Crystal Land</t>
-  </si>
-  <si>
-    <t>314  This game has duplicate Please check it :  Name =  Cuba Caliente</t>
-  </si>
-  <si>
-    <t>315  This game has duplicate Please check it :  Name =  Cube Mania Deluxe™</t>
-  </si>
-  <si>
-    <t>316  This game has duplicate Please check it :  Name =  Cyberslot Megaclusters</t>
-  </si>
-  <si>
-    <t>317  This game has duplicate Please check it :  Name =  Das xBoot</t>
-  </si>
-  <si>
-    <t>318  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>319  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>320  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>321  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>322  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>323  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>324  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>325  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>326  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>327  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
-  </si>
-  <si>
-    <t>328  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>329  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>330  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>331  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>332  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>333  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>334  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>335  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>336  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>337  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>338  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>339  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>340  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>341  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>342  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>343  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>344  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>345  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>346  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>347  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>348  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>349  This game has duplicate Please check it :  Name =  Deadwood</t>
-  </si>
-  <si>
-    <t>350  This game has duplicate Please check it :  Name =  Deep Sea</t>
-  </si>
-  <si>
-    <t>351  This game has duplicate Please check it :  Name =  Demi Gods III</t>
-  </si>
-  <si>
-    <t>352  This game has duplicate Please check it :  Name =  Demon Jack 27</t>
-  </si>
-  <si>
-    <t>353  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>354  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>355  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>356  This game has duplicate Please check it :  Name =  Dia De Muertos</t>
-  </si>
-  <si>
-    <t>357  This game has duplicate Please check it :  Name =  Diamond Fruits</t>
-  </si>
-  <si>
-    <t>358  This game has duplicate Please check it :  Name =  Dino Odyssey</t>
-  </si>
-  <si>
-    <t>359  This game has duplicate Please check it :  Name =  Dino Reels 81</t>
-  </si>
-  <si>
-    <t>360  This game has duplicate Please check it :  Name =  Disco Bar 7s</t>
-  </si>
-  <si>
-    <t>361  This game has duplicate Please check it :  Name =  Double Double Bonus</t>
-  </si>
-  <si>
-    <t>362  This game has duplicate Please check it :  Name =  Double Fortune</t>
-  </si>
-  <si>
-    <t>363  This game has duplicate Please check it :  Name =  Double Fortune</t>
-  </si>
-  <si>
-    <t>364  This game has duplicate Please check it :  Name =  Double Fortune</t>
-  </si>
-  <si>
-    <t>365  This game has duplicate Please check it :  Name =  Double Fortune</t>
-  </si>
-  <si>
-    <t>366  This game has duplicate Please check it :  Name =  Double Fortune</t>
-  </si>
-  <si>
-    <t>367  This game has duplicate Please check it :  Name =  Double Fortune</t>
-  </si>
-  <si>
-    <t>368  This game has duplicate Please check it :  Name =  Double Joker</t>
-  </si>
-  <si>
-    <t>369  This game has duplicate Please check it :  Name =  Double Tigers</t>
-  </si>
-  <si>
-    <t>370  This game has duplicate Please check it :  Name =  Dracula's Castle</t>
-  </si>
-  <si>
-    <t>371  This game has duplicate Please check it :  Name =  Dragon Gate</t>
-  </si>
-  <si>
-    <t>372  This game has duplicate Please check it :  Name =  Dragon Hatch</t>
-  </si>
-  <si>
-    <t>373  This game has duplicate Please check it :  Name =  Dragon Legend</t>
-  </si>
-  <si>
-    <t>374  This game has duplicate Please check it :  Name =  Dragon Tribe</t>
-  </si>
-  <si>
-    <t>375  This game has duplicate Please check it :  Name =  Dragons Gold</t>
-  </si>
-  <si>
-    <t>376  This game has duplicate Please check it :  Name =  Dragons Gold</t>
-  </si>
-  <si>
-    <t>377  This game has duplicate Please check it :  Name =  Dragons Gold</t>
-  </si>
-  <si>
-    <t>378  This game has duplicate Please check it :  Name =  Dragons Lucky 8™</t>
-  </si>
-  <si>
-    <t>379  This game has duplicate Please check it :  Name =  Dragons of the North Deluxe</t>
-  </si>
-  <si>
-    <t>380  This game has duplicate Please check it :  Name =  Dreams of Macau</t>
-  </si>
-  <si>
-    <t>381  This game has duplicate Please check it :  Name =  Ducks Till Dawn</t>
-  </si>
-  <si>
-    <t>382  This game has duplicate Please check it :  Name =  Dungeon Quest</t>
-  </si>
-  <si>
-    <t>383  This game has duplicate Please check it :  Name =  Dwarfs Fortune™</t>
-  </si>
-  <si>
-    <t>384  This game has duplicate Please check it :  Name =  Dwarven Gems Megaways</t>
-  </si>
-  <si>
-    <t>385  This game has duplicate Please check it :  Name =  East Coast vs West Coast</t>
-  </si>
-  <si>
-    <t>386  This game has duplicate Please check it :  Name =  Egypt's Book of Mystery</t>
-  </si>
-  <si>
-    <t>387  This game has duplicate Please check it :  Name =  El Paso Gunfight xNudge</t>
-  </si>
-  <si>
-    <t>388  This game has duplicate Please check it :  Name =  Enchanted</t>
-  </si>
-  <si>
-    <t>389  This game has duplicate Please check it :  Name =  Enchanting Spells</t>
-  </si>
-  <si>
-    <t>390  This game has duplicate Please check it :  Name =  Epic Gems</t>
-  </si>
-  <si>
-    <t>391  This game has duplicate Please check it :  Name =  Epic Riches</t>
-  </si>
-  <si>
-    <t>392  This game has duplicate Please check it :  Name =  European Blackjack</t>
-  </si>
-  <si>
-    <t>393  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>394  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>395  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>396  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>397  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>398  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>399  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>400  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>401  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>402  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>403  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>404  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>405  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>406  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>407  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>408  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>409  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>410  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>411  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>412  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>413  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>414  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>415  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>416  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>417  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>418  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>419  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>420  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>421  This game has duplicate Please check it :  Name =  Evil Goblins xBomb</t>
-  </si>
-  <si>
-    <t>422  This game has duplicate Please check it :  Name =  Fabulous Piggy Bank</t>
-  </si>
-  <si>
-    <t>423  This game has duplicate Please check it :  Name =  Fairy Dust</t>
-  </si>
-  <si>
-    <t>424  This game has duplicate Please check it :  Name =  Fairy Dust</t>
-  </si>
-  <si>
-    <t>425  This game has duplicate Please check it :  Name =  Fairy Dust</t>
-  </si>
-  <si>
-    <t>426  This game has duplicate Please check it :  Name =  Faith</t>
-  </si>
-  <si>
-    <t>427  This game has duplicate Please check it :  Name =  Fantasy Park</t>
-  </si>
-  <si>
-    <t>428  This game has duplicate Please check it :  Name =  Feng Shui Kitties</t>
-  </si>
-  <si>
-    <t>429  This game has duplicate Please check it :  Name =  Fenix Play Deluxe</t>
-  </si>
-  <si>
-    <t>430  This game has duplicate Please check it :  Name =  Finnegan's Formula</t>
-  </si>
-  <si>
-    <t>431  This game has duplicate Please check it :  Name =  Fire In The Hole</t>
-  </si>
-  <si>
-    <t>432  This game has duplicate Please check it :  Name =  Fire vs Ice</t>
-  </si>
-  <si>
-    <t>433  This game has duplicate Please check it :  Name =  Firedrake's Fortune</t>
-  </si>
-  <si>
-    <t>434  This game has duplicate Please check it :  Name =  Fisherman’s Bounty</t>
-  </si>
-  <si>
-    <t>435  This game has duplicate Please check it :  Name =  Flamin'7</t>
-  </si>
-  <si>
-    <t>436  This game has duplicate Please check it :  Name =  Flaming Seven</t>
-  </si>
-  <si>
-    <t>437  This game has duplicate Please check it :  Name =  Flirting Scholar</t>
-  </si>
-  <si>
-    <t>438  This game has duplicate Please check it :  Name =  Folsom Prison</t>
-  </si>
-  <si>
-    <t>439  This game has duplicate Please check it :  Name =  Football Mania Deluxe</t>
-  </si>
-  <si>
-    <t>440  This game has duplicate Please check it :  Name =  Fortune Dragon</t>
-  </si>
-  <si>
-    <t>441  This game has duplicate Please check it :  Name =  Fortune Girl</t>
-  </si>
-  <si>
-    <t>442  This game has duplicate Please check it :  Name =  Fortune Gods</t>
-  </si>
-  <si>
-    <t>443  This game has duplicate Please check it :  Name =  Fortune Lions</t>
-  </si>
-  <si>
-    <t>444  This game has duplicate Please check it :  Name =  Froots</t>
-  </si>
-  <si>
-    <t>445  This game has duplicate Please check it :  Name =  Fruit Basket</t>
-  </si>
-  <si>
-    <t>446  This game has duplicate Please check it :  Name =  Fruit Fiesta</t>
-  </si>
-  <si>
-    <t>447  This game has duplicate Please check it :  Name =  Fruit Mania</t>
-  </si>
-  <si>
-    <t>448  This game has duplicate Please check it :  Name =  Fruit Mania Deluxe</t>
-  </si>
-  <si>
-    <t>449  This game has duplicate Please check it :  Name =  Fruit Party</t>
-  </si>
-  <si>
-    <t>450  This game has duplicate Please check it :  Name =  Fruit Shop</t>
-  </si>
-  <si>
-    <t>451  This game has duplicate Please check it :  Name =  Fruit Shop</t>
-  </si>
-  <si>
-    <t>452  This game has duplicate Please check it :  Name =  Fruit Shop</t>
-  </si>
-  <si>
-    <t>453  This game has duplicate Please check it :  Name =  Fruitastic</t>
-  </si>
-  <si>
-    <t>454  This game has duplicate Please check it :  Name =  Fruits</t>
-  </si>
-  <si>
-    <t>455  This game has duplicate Please check it :  Name =  Fruits &amp; Jokes 100 lines</t>
-  </si>
-  <si>
-    <t>456  This game has duplicate Please check it :  Name =  Fruits Go Bananas™</t>
-  </si>
-  <si>
-    <t>457  This game has duplicate Please check it :  Name =  Fruity Friends</t>
-  </si>
-  <si>
-    <t>458  This game has duplicate Please check it :  Name =  Fruity Hot</t>
-  </si>
-  <si>
-    <t>459  This game has duplicate Please check it :  Name =  Fruity Hot</t>
-  </si>
-  <si>
-    <t>460  This game has duplicate Please check it :  Name =  Fruity Hot</t>
-  </si>
-  <si>
-    <t>461  This game has duplicate Please check it :  Name =  Ganesha Fortune</t>
-  </si>
-  <si>
-    <t>462  This game has duplicate Please check it :  Name =  Ganesha Gold</t>
-  </si>
-  <si>
-    <t>463  This game has duplicate Please check it :  Name =  Gates of Babylon</t>
-  </si>
-  <si>
-    <t>464  This game has duplicate Please check it :  Name =  Gem Saviour</t>
-  </si>
-  <si>
-    <t>465  This game has duplicate Please check it :  Name =  Gem Saviour Sword</t>
-  </si>
-  <si>
-    <t>466  This game has duplicate Please check it :  Name =  Gladiator</t>
-  </si>
-  <si>
-    <t>467  This game has duplicate Please check it :  Name =  Gladiators</t>
-  </si>
-  <si>
-    <t>468  This game has duplicate Please check it :  Name =  Goblins &amp; Gemstones</t>
-  </si>
-  <si>
-    <t>469  This game has duplicate Please check it :  Name =  Gold Coins</t>
-  </si>
-  <si>
-    <t>470  This game has duplicate Please check it :  Name =  Gold Vein</t>
-  </si>
-  <si>
-    <t>471  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>472  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>473  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>474  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>475  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>476  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>477  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>478  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>479  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>480  This game has duplicate Please check it :  Name =  Golden Dragon</t>
-  </si>
-  <si>
-    <t>481  This game has duplicate Please check it :  Name =  Golden Genie &amp; the Walking Wild</t>
-  </si>
-  <si>
-    <t>482  This game has duplicate Please check it :  Name =  Golden Lucky Pigs</t>
-  </si>
-  <si>
-    <t>483  This game has duplicate Please check it :  Name =  Golden Profits</t>
-  </si>
-  <si>
-    <t>484  This game has duplicate Please check it :  Name =  Golden Sphinx</t>
-  </si>
-  <si>
-    <t>485  This game has duplicate Please check it :  Name =  Golden Ticket</t>
-  </si>
-  <si>
-    <t>486  This game has duplicate Please check it :  Name =  Goldfire 7s</t>
-  </si>
-  <si>
-    <t>487  This game has duplicate Please check it :  Name =  Gold's Guardian</t>
-  </si>
-  <si>
-    <t>488  This game has duplicate Please check it :  Name =  Good Girl, Bad Girl</t>
-  </si>
-  <si>
-    <t>489  This game has duplicate Please check it :  Name =  Grand Loot</t>
-  </si>
-  <si>
-    <t>490  This game has duplicate Please check it :  Name =  Great Book of Magic Deluxe</t>
-  </si>
-  <si>
-    <t>491  This game has duplicate Please check it :  Name =  Griffin's Quest X-Mas Edition</t>
-  </si>
-  <si>
-    <t>492  This game has duplicate Please check it :  Name =  Guardians of Ice and Fire</t>
-  </si>
-  <si>
-    <t>493  This game has duplicate Please check it :  Name =  Harlequin Carnival</t>
-  </si>
-  <si>
-    <t>494  This game has duplicate Please check it :  Name =  Haunted Hospital</t>
-  </si>
-  <si>
-    <t>495  This game has duplicate Please check it :  Name =  Haunted House</t>
-  </si>
-  <si>
-    <t>496  This game has duplicate Please check it :  Name =  Hello Paris</t>
-  </si>
-  <si>
-    <t>497  This game has duplicate Please check it :  Name =  Highschool Manga</t>
-  </si>
-  <si>
-    <t>498  This game has duplicate Please check it :  Name =  Highway to Hell Deluxe</t>
-  </si>
-  <si>
-    <t>499  This game has duplicate Please check it :  Name =  Hip Hop Panda</t>
-  </si>
-  <si>
-    <t>500  This game has duplicate Please check it :  Name =  Ho Ho Ho</t>
-  </si>
-  <si>
-    <t>501  This game has duplicate Please check it :  Name =  Ho Ho Ho</t>
-  </si>
-  <si>
-    <t>502  This game has duplicate Please check it :  Name =  Ho Ho Ho</t>
-  </si>
-  <si>
-    <t>503  This game has duplicate Please check it :  Name =  Honey Trap of Diao Chan</t>
-  </si>
-  <si>
-    <t>504  This game has duplicate Please check it :  Name =  Hood vs Wolf</t>
-  </si>
-  <si>
-    <t>505  This game has duplicate Please check it :  Name =  Hooked</t>
-  </si>
-  <si>
-    <t>506  This game has duplicate Please check it :  Name =  Hot 4 Cash!</t>
-  </si>
-  <si>
-    <t>507  This game has duplicate Please check it :  Name =  Hot 777 Deluxe™</t>
-  </si>
-  <si>
-    <t>508  This game has duplicate Please check it :  Name =  Hot Hot 777</t>
-  </si>
-  <si>
-    <t>509  This game has duplicate Please check it :  Name =  Hot Nudge</t>
-  </si>
-  <si>
-    <t>510  This game has duplicate Please check it :  Name =  Hot Party Deluxe</t>
-  </si>
-  <si>
-    <t>511  This game has duplicate Please check it :  Name =  Hot Wild 7s</t>
-  </si>
-  <si>
-    <t>512  This game has duplicate Please check it :  Name =  Hotpot</t>
-  </si>
-  <si>
-    <t>513  This game has duplicate Please check it :  Name =  Hula Magic</t>
-  </si>
-  <si>
-    <t>514  This game has duplicate Please check it :  Name =  Hungry Shark</t>
-  </si>
-  <si>
-    <t>515  This game has duplicate Please check it :  Name =  Ice Ice Yeti</t>
-  </si>
-  <si>
-    <t>516  This game has duplicate Please check it :  Name =  Immortal Fruits</t>
-  </si>
-  <si>
-    <t>517  This game has duplicate Please check it :  Name =  Imperial Fruits: 100 Lines</t>
-  </si>
-  <si>
-    <t>518  This game has duplicate Please check it :  Name =  In The Forest</t>
-  </si>
-  <si>
-    <t>519  This game has duplicate Please check it :  Name =  Infectious 5 xWays</t>
-  </si>
-  <si>
-    <t>520  This game has duplicate Please check it :  Name =  Infinity Hero</t>
-  </si>
-  <si>
-    <t>521  This game has duplicate Please check it :  Name =  Jack Frost's Winter</t>
-  </si>
-  <si>
-    <t>522  This game has duplicate Please check it :  Name =  Jack Hammer</t>
-  </si>
-  <si>
-    <t>523  This game has duplicate Please check it :  Name =  Jack Hammer</t>
-  </si>
-  <si>
-    <t>524  This game has duplicate Please check it :  Name =  Jack Hammer</t>
-  </si>
-  <si>
-    <t>525  This game has duplicate Please check it :  Name =  Jack Hammer</t>
-  </si>
-  <si>
-    <t>526  This game has duplicate Please check it :  Name =  Jack Hammer</t>
-  </si>
-  <si>
-    <t>527  This game has duplicate Please check it :  Name =  Jack Hammer</t>
-  </si>
-  <si>
-    <t>528  This game has duplicate Please check it :  Name =  Jack on Hold</t>
-  </si>
-  <si>
-    <t>529  This game has duplicate Please check it :  Name =  Jackpot Builders</t>
-  </si>
-  <si>
-    <t>530  This game has duplicate Please check it :  Name =  Jackpot Fortunes</t>
-  </si>
-  <si>
-    <t>531  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>532  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>533  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>534  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>535  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>536  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>537  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>538  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>539  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>540  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>541  This game has duplicate Please check it :  Name =  Jack's Ride</t>
-  </si>
-  <si>
-    <t>542  This game has duplicate Please check it :  Name =  Jack's Treasure</t>
-  </si>
-  <si>
-    <t>543  This game has duplicate Please check it :  Name =  Jewels of Jupiter</t>
-  </si>
-  <si>
-    <t>544  This game has duplicate Please check it :  Name =  Jingle Up</t>
-  </si>
-  <si>
-    <t>545  This game has duplicate Please check it :  Name =  Joker Expand: 5 Lines</t>
-  </si>
-  <si>
-    <t>546  This game has duplicate Please check it :  Name =  Joker Joker</t>
-  </si>
-  <si>
-    <t>547  This game has duplicate Please check it :  Name =  Joker Leprechauns</t>
-  </si>
-  <si>
-    <t>548  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>549  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>550  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>551  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>552  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>553  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>554  This game has duplicate Please check it :  Name =  Joker Times</t>
-  </si>
-  <si>
-    <t>555  This game has duplicate Please check it :  Name =  Joker Times Xmas</t>
-  </si>
-  <si>
-    <t>556  This game has duplicate Please check it :  Name =  Journey to the West</t>
-  </si>
-  <si>
-    <t>557  This game has duplicate Please check it :  Name =  Juicy Reels</t>
-  </si>
-  <si>
-    <t>558  This game has duplicate Please check it :  Name =  Jumping Fruits</t>
-  </si>
-  <si>
-    <t>559  This game has duplicate Please check it :  Name =  Jungle Delight</t>
-  </si>
-  <si>
-    <t>560  This game has duplicate Please check it :  Name =  Jungle Treasure</t>
-  </si>
-  <si>
-    <t>561  This game has duplicate Please check it :  Name =  Karen Maneater</t>
-  </si>
-  <si>
-    <t>562  This game has duplicate Please check it :  Name =  Keno</t>
-  </si>
-  <si>
-    <t>563  This game has duplicate Please check it :  Name =  King Koko</t>
-  </si>
-  <si>
-    <t>564  This game has duplicate Please check it :  Name =  King of Cats</t>
-  </si>
-  <si>
-    <t>565  This game has duplicate Please check it :  Name =  King of the Trident Deluxe</t>
-  </si>
-  <si>
-    <t>566  This game has duplicate Please check it :  Name =  Kitchen Drama: BBQ Frenzy</t>
-  </si>
-  <si>
-    <t>567  This game has duplicate Please check it :  Name =  Kitchen Drama: Sushi Mania</t>
-  </si>
-  <si>
-    <t>568  This game has duplicate Please check it :  Name =  Larry the Leprechaun</t>
-  </si>
-  <si>
-    <t>569  This game has duplicate Please check it :  Name =  Lava Loca</t>
-  </si>
-  <si>
-    <t>570  This game has duplicate Please check it :  Name =  Legend of Cleopatra</t>
-  </si>
-  <si>
-    <t>571  This game has duplicate Please check it :  Name =  Legend of Hou Yi</t>
-  </si>
-  <si>
-    <t>572  This game has duplicate Please check it :  Name =  Legend of the 9 Suns</t>
-  </si>
-  <si>
-    <t>573  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
-  </si>
-  <si>
-    <t>574  This game has duplicate Please check it :  Name =  Legion X</t>
-  </si>
-  <si>
-    <t>575  This game has duplicate Please check it :  Name =  Leprechaun Riches</t>
-  </si>
-  <si>
-    <t>576  This game has duplicate Please check it :  Name =  Leprechaun's Lucky Barrel</t>
-  </si>
-  <si>
-    <t>577  This game has duplicate Please check it :  Name =  Los Muertos™</t>
-  </si>
-  <si>
-    <t>578  This game has duplicate Please check it :  Name =  Lost Treasure</t>
-  </si>
-  <si>
-    <t>579  This game has duplicate Please check it :  Name =  Lucky 9</t>
-  </si>
-  <si>
-    <t>580  This game has duplicate Please check it :  Name =  Lucky Cat</t>
-  </si>
-  <si>
-    <t>581  This game has duplicate Please check it :  Name =  Lucky Cat</t>
-  </si>
-  <si>
-    <t>582  This game has duplicate Please check it :  Name =  Lucky Cat</t>
-  </si>
-  <si>
-    <t>583  This game has duplicate Please check it :  Name =  Lucky Clover</t>
-  </si>
-  <si>
-    <t>584  This game has duplicate Please check it :  Name =  Lucky Fish</t>
-  </si>
-  <si>
-    <t>585  This game has duplicate Please check it :  Name =  Lucky Fortune</t>
-  </si>
-  <si>
-    <t>586  This game has duplicate Please check it :  Name =  Lucky Keno</t>
-  </si>
-  <si>
-    <t>587  This game has duplicate Please check it :  Name =  Lucky Koi</t>
-  </si>
-  <si>
-    <t>588  This game has duplicate Please check it :  Name =  Lucky Leprechaun</t>
-  </si>
-  <si>
-    <t>589  This game has duplicate Please check it :  Name =  Lucky Leprechaun</t>
-  </si>
-  <si>
-    <t>590  This game has duplicate Please check it :  Name =  Lucky Leprechaun</t>
-  </si>
-  <si>
-    <t>591  This game has duplicate Please check it :  Name =  Lucky Lucky</t>
-  </si>
-  <si>
-    <t>592  This game has duplicate Please check it :  Name =  Lucky Mr Wild</t>
-  </si>
-  <si>
-    <t>593  This game has duplicate Please check it :  Name =  Lucky Reels™</t>
-  </si>
-  <si>
-    <t>594  This game has duplicate Please check it :  Name =  Madame Clues</t>
-  </si>
-  <si>
-    <t>595  This game has duplicate Please check it :  Name =  Magic Fruits 4 Deluxe</t>
-  </si>
-  <si>
-    <t>596  This game has duplicate Please check it :  Name =  Magic Fruits Deluxe</t>
-  </si>
-  <si>
-    <t>597  This game has duplicate Please check it :  Name =  Magic Hot 4 Deluxe</t>
-  </si>
-  <si>
-    <t>598  This game has duplicate Please check it :  Name =  Magic of the Ring Deluxe</t>
-  </si>
-  <si>
-    <t>599  This game has duplicate Please check it :  Name =  Magic Stars 3</t>
-  </si>
-  <si>
-    <t>600  This game has duplicate Please check it :  Name =  Magic Stars 5</t>
-  </si>
-  <si>
-    <t>601  This game has duplicate Please check it :  Name =  Magic Stars 6</t>
-  </si>
-  <si>
-    <t>602  This game has duplicate Please check it :  Name =  Magic Stars 9</t>
-  </si>
-  <si>
-    <t>603  This game has duplicate Please check it :  Name =  Magic Target Deluxe</t>
-  </si>
-  <si>
-    <t>604  This game has duplicate Please check it :  Name =  Magic Wilds</t>
-  </si>
-  <si>
-    <t>605  This game has duplicate Please check it :  Name =  Magikspell</t>
-  </si>
-  <si>
-    <t>606  This game has duplicate Please check it :  Name =  Mahjong Ways II</t>
-  </si>
-  <si>
-    <t>607  This game has duplicate Please check it :  Name =  Mahjong Ways II</t>
-  </si>
-  <si>
-    <t>608  This game has duplicate Please check it :  Name =  Mahjong Ways II</t>
-  </si>
-  <si>
-    <t>609  This game has duplicate Please check it :  Name =  Manhattan Goes Wild</t>
-  </si>
-  <si>
-    <t>610  This game has duplicate Please check it :  Name =  Mata Hari: The Spy</t>
-  </si>
-  <si>
-    <t>611  This game has duplicate Please check it :  Name =  Matsuri</t>
-  </si>
-  <si>
-    <t>612  This game has duplicate Please check it :  Name =  Mayan Gold</t>
-  </si>
-  <si>
-    <t>613  This game has duplicate Please check it :  Name =  Mayan Gold</t>
-  </si>
-  <si>
-    <t>614  This game has duplicate Please check it :  Name =  Mayan Gold</t>
+    <t>241  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>242  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>243  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>244  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>245  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>246  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>247  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>248  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>249  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>250  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>251  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>252  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>253  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>254  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>255  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>256  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>257  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>258  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>259  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>260  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>261  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>262  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>263  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>264  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>265  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>266  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
+  </si>
+  <si>
+    <t>267  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>268  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>269  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>270  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>271  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>272  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>273  This game has duplicate Please check it :  Name =  Bonus Poker Deluxe</t>
+  </si>
+  <si>
+    <t>274  This game has duplicate Please check it :  Name =  Bonus Poker</t>
+  </si>
+  <si>
+    <t>275  This game has duplicate Please check it :  Name =  Bonus Deuces Wild</t>
+  </si>
+  <si>
+    <t>276  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>277  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>278  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>279  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>280  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>281  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>282  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>283  This game has duplicate Please check it :  Name =  Madame Clues</t>
+  </si>
+  <si>
+    <t>284  This game has duplicate Please check it :  Name =  Valley of the Muses</t>
+  </si>
+  <si>
+    <t>285  This game has duplicate Please check it :  Name =  Lucky Mr Wild</t>
+  </si>
+  <si>
+    <t>286  This game has duplicate Please check it :  Name =  Weight of the Gun</t>
+  </si>
+  <si>
+    <t>287  This game has duplicate Please check it :  Name =  Money Wagon</t>
+  </si>
+  <si>
+    <t>288  This game has duplicate Please check it :  Name =  Hello Paris</t>
+  </si>
+  <si>
+    <t>289  This game has duplicate Please check it :  Name =  Fabulous Piggy Bank</t>
+  </si>
+  <si>
+    <t>290  This game has duplicate Please check it :  Name =  Royal Crown</t>
+  </si>
+  <si>
+    <t>291  This game has duplicate Please check it :  Name =  Folsom Prison</t>
+  </si>
+  <si>
+    <t>292  This game has duplicate Please check it :  Name =  Magikspell</t>
+  </si>
+  <si>
+    <t>293  This game has duplicate Please check it :  Name =  MegaBlox 777</t>
+  </si>
+  <si>
+    <t>294  This game has duplicate Please check it :  Name =  Fruity Hot</t>
+  </si>
+  <si>
+    <t>295  This game has duplicate Please check it :  Name =  Fruity Hot</t>
+  </si>
+  <si>
+    <t>296  This game has duplicate Please check it :  Name =  Age of Athena</t>
+  </si>
+  <si>
+    <t>297  This game has duplicate Please check it :  Name =  Wolf Strike</t>
+  </si>
+  <si>
+    <t>298  This game has duplicate Please check it :  Name =  Wolf Strike</t>
+  </si>
+  <si>
+    <t>299  This game has duplicate Please check it :  Name =  Triple Fruit Deluxe Megaways</t>
+  </si>
+  <si>
+    <t>300  This game has duplicate Please check it :  Name =  Wolf Strike</t>
+  </si>
+  <si>
+    <t>301  This game has duplicate Please check it :  Name =  Fairy Dust</t>
+  </si>
+  <si>
+    <t>302  This game has duplicate Please check it :  Name =  Fairy Dust</t>
+  </si>
+  <si>
+    <t>303  This game has duplicate Please check it :  Name =  Apollo Pays</t>
+  </si>
+  <si>
+    <t>304  This game has duplicate Please check it :  Name =  Misery Mining</t>
+  </si>
+  <si>
+    <t>305  This game has duplicate Please check it :  Name =  Dwarfs Fortune™</t>
+  </si>
+  <si>
+    <t>306  This game has duplicate Please check it :  Name =  Super Rainbow Megaways</t>
+  </si>
+  <si>
+    <t>307  This game has duplicate Please check it :  Name =  Diamond Fruits</t>
+  </si>
+  <si>
+    <t>308  This game has duplicate Please check it :  Name =  Book Of Ba'al</t>
+  </si>
+  <si>
+    <t>309  This game has duplicate Please check it :  Name =  Vegas Blast</t>
+  </si>
+  <si>
+    <t>310  This game has duplicate Please check it :  Name =  Medusa</t>
+  </si>
+  <si>
+    <t>311  This game has duplicate Please check it :  Name =  Medusa</t>
+  </si>
+  <si>
+    <t>312  This game has duplicate Please check it :  Name =  Punk Toilet</t>
+  </si>
+  <si>
+    <t>313  This game has duplicate Please check it :  Name =  Year Of The Tiger</t>
+  </si>
+  <si>
+    <t>314  This game has duplicate Please check it :  Name =  Tombstone R.I.P.</t>
+  </si>
+  <si>
+    <t>315  This game has duplicate Please check it :  Name =  Cash Truck</t>
+  </si>
+  <si>
+    <t>316  This game has duplicate Please check it :  Name =  True Grit Redemption</t>
+  </si>
+  <si>
+    <t>317  This game has duplicate Please check it :  Name =  8 Tigers Gold  Megaways™</t>
+  </si>
+  <si>
+    <t>318  This game has duplicate Please check it :  Name =  Fruity Hot</t>
+  </si>
+  <si>
+    <t>319  This game has duplicate Please check it :  Name =  Joker Times Xmas</t>
+  </si>
+  <si>
+    <t>320  This game has duplicate Please check it :  Name =  Book of Duat</t>
+  </si>
+  <si>
+    <t>321  This game has duplicate Please check it :  Name =  Lucky Cat</t>
+  </si>
+  <si>
+    <t>322  This game has duplicate Please check it :  Name =  Lucky Cat</t>
+  </si>
+  <si>
+    <t>323  This game has duplicate Please check it :  Name =  Butterfly Lovers</t>
+  </si>
+  <si>
+    <t>324  This game has duplicate Please check it :  Name =  Caribbean Anne 2</t>
+  </si>
+  <si>
+    <t>325  This game has duplicate Please check it :  Name =  Hula Magic</t>
+  </si>
+  <si>
+    <t>326  This game has duplicate Please check it :  Name =  Evil Goblins xBomb</t>
+  </si>
+  <si>
+    <t>327  This game has duplicate Please check it :  Name =  Wild Harlequin</t>
+  </si>
+  <si>
+    <t>328  This game has duplicate Please check it :  Name =  Jewels of Jupiter</t>
+  </si>
+  <si>
+    <t>329  This game has duplicate Please check it :  Name =  Dwarven Gems Megaways</t>
+  </si>
+  <si>
+    <t>330  This game has duplicate Please check it :  Name =  Das xBoot</t>
+  </si>
+  <si>
+    <t>331  This game has duplicate Please check it :  Name =  Big Bad Wolf Megaways™</t>
+  </si>
+  <si>
+    <t>332  This game has duplicate Please check it :  Name =  King Koko</t>
+  </si>
+  <si>
+    <t>333  This game has duplicate Please check it :  Name =  Mental</t>
+  </si>
+  <si>
+    <t>334  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
+  </si>
+  <si>
+    <t>335  This game has duplicate Please check it :  Name =  Scrolls of Aphrodite</t>
+  </si>
+  <si>
+    <t>336  This game has duplicate Please check it :  Name =  Pearls of Aphrodite</t>
+  </si>
+  <si>
+    <t>337  This game has duplicate Please check it :  Name =  The Secret Order</t>
+  </si>
+  <si>
+    <t>338  This game has duplicate Please check it :  Name =  Blazzing Bull 2</t>
+  </si>
+  <si>
+    <t>339  This game has duplicate Please check it :  Name =  Rock the Reels Megaways</t>
+  </si>
+  <si>
+    <t>340  This game has duplicate Please check it :  Name =  Wild Flower</t>
+  </si>
+  <si>
+    <t>341  This game has duplicate Please check it :  Name =  Fantasy Park</t>
+  </si>
+  <si>
+    <t>342  This game has duplicate Please check it :  Name =  Triple Bar</t>
+  </si>
+  <si>
+    <t>343  This game has duplicate Please check it :  Name =  Stellar Ways</t>
+  </si>
+  <si>
+    <t>344  This game has duplicate Please check it :  Name =  Gold's Guardian</t>
+  </si>
+  <si>
+    <t>345  This game has duplicate Please check it :  Name =  Pirate Armada</t>
+  </si>
+  <si>
+    <t>346  This game has duplicate Please check it :  Name =  Blirix's Workshop</t>
+  </si>
+  <si>
+    <t>347  This game has duplicate Please check it :  Name =  Cosmic Charms</t>
+  </si>
+  <si>
+    <t>348  This game has duplicate Please check it :  Name =  Flamin'7</t>
+  </si>
+  <si>
+    <t>349  This game has duplicate Please check it :  Name =  xWays Hoarder xSplit</t>
+  </si>
+  <si>
+    <t>350  This game has duplicate Please check it :  Name =  Mazu</t>
+  </si>
+  <si>
+    <t>351  This game has duplicate Please check it :  Name =  Alice Riches</t>
+  </si>
+  <si>
+    <t>352  This game has duplicate Please check it :  Name =  Age of Hurucan</t>
+  </si>
+  <si>
+    <t>353  This game has duplicate Please check it :  Name =  Sky Vault</t>
+  </si>
+  <si>
+    <t>354  This game has duplicate Please check it :  Name =  Golden Ticket</t>
+  </si>
+  <si>
+    <t>355  This game has duplicate Please check it :  Name =  Journey to the West</t>
+  </si>
+  <si>
+    <t>356  This game has duplicate Please check it :  Name =  Fortune Lions</t>
+  </si>
+  <si>
+    <t>357  This game has duplicate Please check it :  Name =  Finnegan's Formula</t>
+  </si>
+  <si>
+    <t>358  This game has duplicate Please check it :  Name =  Fortune Dragon</t>
+  </si>
+  <si>
+    <t>359  This game has duplicate Please check it :  Name =  Jack's Treasure</t>
+  </si>
+  <si>
+    <t>360  This game has duplicate Please check it :  Name =  Bloodshot: Rising Spirit</t>
+  </si>
+  <si>
+    <t>361  This game has duplicate Please check it :  Name =  Fruity Friends</t>
+  </si>
+  <si>
+    <t>362  This game has duplicate Please check it :  Name =  Joker Joker</t>
+  </si>
+  <si>
+    <t>363  This game has duplicate Please check it :  Name =  Amazing Riches</t>
+  </si>
+  <si>
+    <t>364  This game has duplicate Please check it :  Name =  Fisherman’s Bounty</t>
+  </si>
+  <si>
+    <t>365  This game has duplicate Please check it :  Name =  Hot Hot 777</t>
+  </si>
+  <si>
+    <t>366  This game has duplicate Please check it :  Name =  Dragons of the North Deluxe</t>
+  </si>
+  <si>
+    <t>367  This game has duplicate Please check it :  Name =  Infectious 5 xWays</t>
+  </si>
+  <si>
+    <t>368  This game has duplicate Please check it :  Name =  Bier Party</t>
+  </si>
+  <si>
+    <t>369  This game has duplicate Please check it :  Name =  King of the Trident Deluxe</t>
+  </si>
+  <si>
+    <t>370  This game has duplicate Please check it :  Name =  Mystery Fox Christmas Party</t>
+  </si>
+  <si>
+    <t>371  This game has duplicate Please check it :  Name =  Epic Riches</t>
+  </si>
+  <si>
+    <t>372  This game has duplicate Please check it :  Name =  Power Strike - Super Spin</t>
+  </si>
+  <si>
+    <t>373  This game has duplicate Please check it :  Name =  Hot Wild 7s</t>
+  </si>
+  <si>
+    <t>374  This game has duplicate Please check it :  Name =  Grand Loot</t>
+  </si>
+  <si>
+    <t>375  This game has duplicate Please check it :  Name =  Mayan Gold</t>
+  </si>
+  <si>
+    <t>376  This game has duplicate Please check it :  Name =  Mayan Gold</t>
+  </si>
+  <si>
+    <t>377  This game has duplicate Please check it :  Name =  Aesir Treasures</t>
+  </si>
+  <si>
+    <t>378  This game has duplicate Please check it :  Name =  King of Cats</t>
+  </si>
+  <si>
+    <t>379  This game has duplicate Please check it :  Name =  Sun of Fortune</t>
+  </si>
+  <si>
+    <t>380  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>381  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>382  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>383  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>384  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>385  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>386  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>387  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>388  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>389  This game has duplicate Please check it :  Name =  Dazzle Me Megaways</t>
+  </si>
+  <si>
+    <t>390  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>391  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>392  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>393  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>394  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>395  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>396  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>397  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>398  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>399  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>400  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>401  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>402  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>403  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>404  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>405  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>406  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>407  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>408  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>409  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>410  This game has duplicate Please check it :  Name =  El Paso Gunfight xNudge</t>
+  </si>
+  <si>
+    <t>411  This game has duplicate Please check it :  Name =  Joker Times</t>
+  </si>
+  <si>
+    <t>412  This game has duplicate Please check it :  Name =  Ancient Riches Casino Red Hot Firepot</t>
+  </si>
+  <si>
+    <t>413  This game has duplicate Please check it :  Name =  Bushido Ways xNudge</t>
+  </si>
+  <si>
+    <t>414  This game has duplicate Please check it :  Name =  Titan's Riches</t>
+  </si>
+  <si>
+    <t>415  This game has duplicate Please check it :  Name =  Burning Stars 3</t>
+  </si>
+  <si>
+    <t>416  This game has duplicate Please check it :  Name =  Cyberslot Megaclusters</t>
+  </si>
+  <si>
+    <t>417  This game has duplicate Please check it :  Name =  Speakeasy Boost</t>
+  </si>
+  <si>
+    <t>418  This game has duplicate Please check it :  Name =  Jack Hammer</t>
+  </si>
+  <si>
+    <t>419  This game has duplicate Please check it :  Name =  Jack Hammer</t>
+  </si>
+  <si>
+    <t>420  This game has duplicate Please check it :  Name =  Jack Hammer</t>
+  </si>
+  <si>
+    <t>421  This game has duplicate Please check it :  Name =  Jack Hammer</t>
+  </si>
+  <si>
+    <t>422  This game has duplicate Please check it :  Name =  Jack Hammer</t>
+  </si>
+  <si>
+    <t>423  This game has duplicate Please check it :  Name =  Jack Hammer</t>
+  </si>
+  <si>
+    <t>424  This game has duplicate Please check it :  Name =  Fruit Shop</t>
+  </si>
+  <si>
+    <t>425  This game has duplicate Please check it :  Name =  Fruit Shop</t>
+  </si>
+  <si>
+    <t>426  This game has duplicate Please check it :  Name =  Fruit Shop</t>
+  </si>
+  <si>
+    <t>427  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>428  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>429  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>430  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>431  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>432  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>433  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>434  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>435  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>436  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>437  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>438  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>439  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>440  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>441  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>442  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>443  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>444  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>445  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>446  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>447  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>448  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>449  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>450  This game has duplicate Please check it :  Name =  Steam Tower</t>
+  </si>
+  <si>
+    <t>451  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>452  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>453  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>454  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>455  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>456  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>457  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>458  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>459  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>460  This game has duplicate Please check it :  Name =  Aloha! Cluster Pays™</t>
+  </si>
+  <si>
+    <t>461  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>462  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>463  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>464  This game has duplicate Please check it :  Name =  Joker Leprechauns</t>
+  </si>
+  <si>
+    <t>465  This game has duplicate Please check it :  Name =  Reel Diamonds</t>
+  </si>
+  <si>
+    <t>466  This game has duplicate Please check it :  Name =  Fire In The Hole</t>
+  </si>
+  <si>
+    <t>467  This game has duplicate Please check it :  Name =  Western wilds</t>
+  </si>
+  <si>
+    <t>468  This game has duplicate Please check it :  Name =  Van Helsing's Book of the Undead</t>
+  </si>
+  <si>
+    <t>469  This game has duplicate Please check it :  Name =  One Million Megaways BC</t>
+  </si>
+  <si>
+    <t>470  This game has duplicate Please check it :  Name =  Classic Fruits</t>
+  </si>
+  <si>
+    <t>471  This game has duplicate Please check it :  Name =  Christmas Megaways</t>
+  </si>
+  <si>
+    <t>472  This game has duplicate Please check it :  Name =  Battle Maidens Cleopatra</t>
+  </si>
+  <si>
+    <t>473  This game has duplicate Please check it :  Name =  Aeterna</t>
+  </si>
+  <si>
+    <t>474  This game has duplicate Please check it :  Name =  Clover Lady</t>
+  </si>
+  <si>
+    <t>475  This game has duplicate Please check it :  Name =  Guardians of Ice and Fire</t>
+  </si>
+  <si>
+    <t>476  This game has duplicate Please check it :  Name =  Jack Frost's Winter</t>
+  </si>
+  <si>
+    <t>477  This game has duplicate Please check it :  Name =  Agent 51</t>
+  </si>
+  <si>
+    <t>478  This game has duplicate Please check it :  Name =  Wild West</t>
+  </si>
+  <si>
+    <t>479  This game has duplicate Please check it :  Name =  Double Fortune</t>
+  </si>
+  <si>
+    <t>480  This game has duplicate Please check it :  Name =  Double Fortune</t>
+  </si>
+  <si>
+    <t>481  This game has duplicate Please check it :  Name =  Double Fortune</t>
+  </si>
+  <si>
+    <t>482  This game has duplicate Please check it :  Name =  Lucky Lucky</t>
+  </si>
+  <si>
+    <t>483  This game has duplicate Please check it :  Name =  Book of Gems Megaways</t>
+  </si>
+  <si>
+    <t>484  This game has duplicate Please check it :  Name =  East Coast vs West Coast</t>
+  </si>
+  <si>
+    <t>485  This game has duplicate Please check it :  Name =  Reel Holidays</t>
+  </si>
+  <si>
+    <t>486  This game has duplicate Please check it :  Name =  Cheshire Wild</t>
+  </si>
+  <si>
+    <t>487  This game has duplicate Please check it :  Name =  Telly Reels</t>
+  </si>
+  <si>
+    <t>488  This game has duplicate Please check it :  Name =  Sonic Reels</t>
+  </si>
+  <si>
+    <t>489  This game has duplicate Please check it :  Name =  Reel Joke</t>
+  </si>
+  <si>
+    <t>490  This game has duplicate Please check it :  Name =  Reel Hero</t>
+  </si>
+  <si>
+    <t>491  This game has duplicate Please check it :  Name =  Lucky 9</t>
+  </si>
+  <si>
+    <t>492  This game has duplicate Please check it :  Name =  Infinity Hero</t>
+  </si>
+  <si>
+    <t>493  This game has duplicate Please check it :  Name =  Black Horse Deluxe</t>
+  </si>
+  <si>
+    <t>494  This game has duplicate Please check it :  Name =  Ducks Till Dawn</t>
+  </si>
+  <si>
+    <t>495  This game has duplicate Please check it :  Name =  Dragon Tribe</t>
+  </si>
+  <si>
+    <t>496  This game has duplicate Please check it :  Name =  Punk Rocker</t>
+  </si>
+  <si>
+    <t>497  This game has duplicate Please check it :  Name =  Firedrake's Fortune</t>
+  </si>
+  <si>
+    <t>498  This game has duplicate Please check it :  Name =  Secrets of Cleopatra</t>
+  </si>
+  <si>
+    <t>499  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>500  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>501  This game has duplicate Please check it :  Name =  Vampires</t>
+  </si>
+  <si>
+    <t>502  This game has duplicate Please check it :  Name =  Goblins &amp; Gemstones</t>
+  </si>
+  <si>
+    <t>503  This game has duplicate Please check it :  Name =  Faith</t>
+  </si>
+  <si>
+    <t>504  This game has duplicate Please check it :  Name =  Thai River Wonders</t>
+  </si>
+  <si>
+    <t>505  This game has duplicate Please check it :  Name =  Riches of Midgard: Land and Expand</t>
+  </si>
+  <si>
+    <t>506  This game has duplicate Please check it :  Name =  Griffin's Quest X-Mas Edition</t>
+  </si>
+  <si>
+    <t>507  This game has duplicate Please check it :  Name =  Lucky Cat</t>
+  </si>
+  <si>
+    <t>508  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>509  This game has duplicate Please check it :  Name =  Dragons Gold</t>
+  </si>
+  <si>
+    <t>510  This game has duplicate Please check it :  Name =  Sadie Swift: Guns &amp; Glyphs</t>
+  </si>
+  <si>
+    <t>511  This game has duplicate Please check it :  Name =  Treasures of Aztec</t>
+  </si>
+  <si>
+    <t>512  This game has duplicate Please check it :  Name =  Gladiators</t>
+  </si>
+  <si>
+    <t>513  This game has duplicate Please check it :  Name =  Pawprints of Purrsia</t>
+  </si>
+  <si>
+    <t>514  This game has duplicate Please check it :  Name =  Super Lion</t>
+  </si>
+  <si>
+    <t>515  This game has duplicate Please check it :  Name =  Origins Of Lilith</t>
+  </si>
+  <si>
+    <t>516  This game has duplicate Please check it :  Name =  Wild Fireworks</t>
+  </si>
+  <si>
+    <t>517  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
+  </si>
+  <si>
+    <t>518  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
+  </si>
+  <si>
+    <t>519  This game has duplicate Please check it :  Name =  Dreams of Macau</t>
+  </si>
+  <si>
+    <t>520  This game has duplicate Please check it :  Name =  Oktoberfest</t>
+  </si>
+  <si>
+    <t>521  This game has duplicate Please check it :  Name =  Oktoberfest</t>
+  </si>
+  <si>
+    <t>522  This game has duplicate Please check it :  Name =  Jackpot Fortunes</t>
+  </si>
+  <si>
+    <t>523  This game has duplicate Please check it :  Name =  Three Monkeys</t>
+  </si>
+  <si>
+    <t>524  This game has duplicate Please check it :  Name =  Prosperity Lion</t>
+  </si>
+  <si>
+    <t>525  This game has duplicate Please check it :  Name =  Piggy Gold</t>
+  </si>
+  <si>
+    <t>526  This game has duplicate Please check it :  Name =  Mahjong Ways II</t>
+  </si>
+  <si>
+    <t>527  This game has duplicate Please check it :  Name =  Mahjong Ways II</t>
+  </si>
+  <si>
+    <t>528  This game has duplicate Please check it :  Name =  Hip Hop Panda</t>
+  </si>
+  <si>
+    <t>529  This game has duplicate Please check it :  Name =  Gem Saviour Sword</t>
+  </si>
+  <si>
+    <t>530  This game has duplicate Please check it :  Name =  Flirting Scholar</t>
+  </si>
+  <si>
+    <t>531  This game has duplicate Please check it :  Name =  Egypt's Book of Mystery</t>
+  </si>
+  <si>
+    <t>532  This game has duplicate Please check it :  Name =  Double Fortune</t>
+  </si>
+  <si>
+    <t>533  This game has duplicate Please check it :  Name =  Double Fortune</t>
+  </si>
+  <si>
+    <t>534  This game has duplicate Please check it :  Name =  Tree of Fortune</t>
+  </si>
+  <si>
+    <t>535  This game has duplicate Please check it :  Name =  Tree of Fortune</t>
+  </si>
+  <si>
+    <t>536  This game has duplicate Please check it :  Name =  Plushie Frenzy</t>
+  </si>
+  <si>
+    <t>537  This game has duplicate Please check it :  Name =  Hotpot</t>
+  </si>
+  <si>
+    <t>538  This game has duplicate Please check it :  Name =  Hood vs Wolf</t>
+  </si>
+  <si>
+    <t>539  This game has duplicate Please check it :  Name =  Honey Trap of Diao Chan</t>
+  </si>
+  <si>
+    <t>540  This game has duplicate Please check it :  Name =  Gem Saviour</t>
+  </si>
+  <si>
+    <t>541  This game has duplicate Please check it :  Name =  Fortune Gods</t>
+  </si>
+  <si>
+    <t>542  This game has duplicate Please check it :  Name =  Dragon Legend</t>
+  </si>
+  <si>
+    <t>543  This game has duplicate Please check it :  Name =  The Great Icescape</t>
+  </si>
+  <si>
+    <t>544  This game has duplicate Please check it :  Name =  Symbols of Egypt</t>
+  </si>
+  <si>
+    <t>545  This game has duplicate Please check it :  Name =  Shaolin Soccer</t>
+  </si>
+  <si>
+    <t>546  This game has duplicate Please check it :  Name =  Reel Love</t>
+  </si>
+  <si>
+    <t>547  This game has duplicate Please check it :  Name =  Ninja vs Samurai</t>
+  </si>
+  <si>
+    <t>548  This game has duplicate Please check it :  Name =  Muay Thai Champion</t>
+  </si>
+  <si>
+    <t>549  This game has duplicate Please check it :  Name =  Leprechaun Riches</t>
+  </si>
+  <si>
+    <t>550  This game has duplicate Please check it :  Name =  Legend of Hou Yi</t>
+  </si>
+  <si>
+    <t>551  This game has duplicate Please check it :  Name =  Jungle Delight</t>
+  </si>
+  <si>
+    <t>552  This game has duplicate Please check it :  Name =  Ganesha Gold</t>
+  </si>
+  <si>
+    <t>553  This game has duplicate Please check it :  Name =  Ganesha Fortune</t>
+  </si>
+  <si>
+    <t>554  This game has duplicate Please check it :  Name =  Dragon Hatch</t>
+  </si>
+  <si>
+    <t>555  This game has duplicate Please check it :  Name =  Candy Burst</t>
+  </si>
+  <si>
+    <t>556  This game has duplicate Please check it :  Name =  Caishen Wins</t>
+  </si>
+  <si>
+    <t>557  This game has duplicate Please check it :  Name =  Phoenix Rises</t>
+  </si>
+  <si>
+    <t>558  This game has duplicate Please check it :  Name =  Demi Gods III</t>
+  </si>
+  <si>
+    <t>559  This game has duplicate Please check it :  Name =  Beers on Reels</t>
+  </si>
+  <si>
+    <t>560  This game has duplicate Please check it :  Name =  Mahjong Ways II</t>
+  </si>
+  <si>
+    <t>561  This game has duplicate Please check it :  Name =  Book of Shadows</t>
+  </si>
+  <si>
+    <t>562  This game has duplicate Please check it :  Name =  Lucky Leprechaun</t>
+  </si>
+  <si>
+    <t>563  This game has duplicate Please check it :  Name =  Lucky Leprechaun</t>
+  </si>
+  <si>
+    <t>564  This game has duplicate Please check it :  Name =  Super Multitimes Progressive</t>
+  </si>
+  <si>
+    <t>565  This game has duplicate Please check it :  Name =  Ultimate Super Reels</t>
+  </si>
+  <si>
+    <t>566  This game has duplicate Please check it :  Name =  Absolute Super Reels</t>
+  </si>
+  <si>
+    <t>567  This game has duplicate Please check it :  Name =  Super Lucky Reels</t>
+  </si>
+  <si>
+    <t>568  This game has duplicate Please check it :  Name =  Immortal Fruits</t>
+  </si>
+  <si>
+    <t>569  This game has duplicate Please check it :  Name =  Good Girl, Bad Girl</t>
+  </si>
+  <si>
+    <t>570  This game has duplicate Please check it :  Name =  Wild Catch</t>
+  </si>
+  <si>
+    <t>571  This game has duplicate Please check it :  Name =  Money Mouse</t>
+  </si>
+  <si>
+    <t>572  This game has duplicate Please check it :  Name =  Jungle Treasure</t>
+  </si>
+  <si>
+    <t>573  This game has duplicate Please check it :  Name =  Dragon Gate</t>
+  </si>
+  <si>
+    <t>574  This game has duplicate Please check it :  Name =  Fruit Party</t>
+  </si>
+  <si>
+    <t>575  This game has duplicate Please check it :  Name =  Deadwood</t>
+  </si>
+  <si>
+    <t>576  This game has duplicate Please check it :  Name =  Butterfly Staxx</t>
+  </si>
+  <si>
+    <t>577  This game has duplicate Please check it :  Name =  Harlequin Carnival</t>
+  </si>
+  <si>
+    <t>578  This game has duplicate Please check it :  Name =  Miami Bonus Wheel</t>
+  </si>
+  <si>
+    <t>579  This game has duplicate Please check it :  Name =  Aurora</t>
+  </si>
+  <si>
+    <t>580  This game has duplicate Please check it :  Name =  Barbarian Fury</t>
+  </si>
+  <si>
+    <t>581  This game has duplicate Please check it :  Name =  Magic Wilds</t>
+  </si>
+  <si>
+    <t>582  This game has duplicate Please check it :  Name =  Bonnie &amp; Clyde</t>
+  </si>
+  <si>
+    <t>583  This game has duplicate Please check it :  Name =  The Travels of Marco</t>
+  </si>
+  <si>
+    <t>584  This game has duplicate Please check it :  Name =  Viva Las Vegas</t>
+  </si>
+  <si>
+    <t>585  This game has duplicate Please check it :  Name =  Super 10 Stars</t>
+  </si>
+  <si>
+    <t>586  This game has duplicate Please check it :  Name =  Mysteries of Egypt</t>
+  </si>
+  <si>
+    <t>587  This game has duplicate Please check it :  Name =  Super 5 Stars</t>
+  </si>
+  <si>
+    <t>588  This game has duplicate Please check it :  Name =  The Legendary Red Dragon</t>
+  </si>
+  <si>
+    <t>589  This game has duplicate Please check it :  Name =  Mata Hari: The Spy</t>
+  </si>
+  <si>
+    <t>590  This game has duplicate Please check it :  Name =  Super 7 Stars</t>
+  </si>
+  <si>
+    <t>591  This game has duplicate Please check it :  Name =  Million 7</t>
+  </si>
+  <si>
+    <t>592  This game has duplicate Please check it :  Name =  The Asp Of Cleopatra</t>
+  </si>
+  <si>
+    <t>593  This game has duplicate Please check it :  Name =  Tiger and Dragon</t>
+  </si>
+  <si>
+    <t>594  This game has duplicate Please check it :  Name =  Sunny Fruits: Hold and Win</t>
+  </si>
+  <si>
+    <t>595  This game has duplicate Please check it :  Name =  Wild Energy</t>
+  </si>
+  <si>
+    <t>596  This game has duplicate Please check it :  Name =  Hooked</t>
+  </si>
+  <si>
+    <t>597  This game has duplicate Please check it :  Name =  Fortune Girl</t>
+  </si>
+  <si>
+    <t>598  This game has duplicate Please check it :  Name =  Crystal Cavern</t>
+  </si>
+  <si>
+    <t>599  This game has duplicate Please check it :  Name =  Fruitastic</t>
+  </si>
+  <si>
+    <t>600  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>601  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>602  This game has duplicate Please check it :  Name =  Battle for Cosmos</t>
+  </si>
+  <si>
+    <t>603  This game has duplicate Please check it :  Name =  Serengeti Kings</t>
+  </si>
+  <si>
+    <t>604  This game has duplicate Please check it :  Name =  Wixx</t>
+  </si>
+  <si>
+    <t>605  This game has duplicate Please check it :  Name =  Tractor Beam</t>
+  </si>
+  <si>
+    <t>606  This game has duplicate Please check it :  Name =  Tombstone</t>
+  </si>
+  <si>
+    <t>607  This game has duplicate Please check it :  Name =  Tomb Of Nefertiti</t>
+  </si>
+  <si>
+    <t>608  This game has duplicate Please check it :  Name =  Thor: Hammer Time</t>
+  </si>
+  <si>
+    <t>609  This game has duplicate Please check it :  Name =  The Creepy Carnival</t>
+  </si>
+  <si>
+    <t>610  This game has duplicate Please check it :  Name =  Tesla Jolt</t>
+  </si>
+  <si>
+    <t>611  This game has duplicate Please check it :  Name =  Starstruck</t>
+  </si>
+  <si>
+    <t>612  This game has duplicate Please check it :  Name =  Pixies vs Pirates</t>
+  </si>
+  <si>
+    <t>613  This game has duplicate Please check it :  Name =  Owls</t>
+  </si>
+  <si>
+    <t>614  This game has duplicate Please check it :  Name =  Oktoberfest</t>
   </si>
   <si>
     <t>615  This game has duplicate Please check it :  Name =  Mayan Magic</t>
   </si>
   <si>
-    <t>616  This game has duplicate Please check it :  Name =  Mayan Ritual™</t>
-  </si>
-  <si>
-    <t>617  This game has duplicate Please check it :  Name =  Mazu</t>
-  </si>
-  <si>
-    <t>618  This game has duplicate Please check it :  Name =  Medusa</t>
-  </si>
-  <si>
-    <t>619  This game has duplicate Please check it :  Name =  Medusa</t>
-  </si>
-  <si>
-    <t>620  This game has duplicate Please check it :  Name =  Medusa</t>
-  </si>
-  <si>
-    <t>621  This game has duplicate Please check it :  Name =  Mega Gems</t>
-  </si>
-  <si>
-    <t>622  This game has duplicate Please check it :  Name =  MegaBlox 777</t>
-  </si>
-  <si>
-    <t>623  This game has duplicate Please check it :  Name =  Mental</t>
-  </si>
-  <si>
-    <t>624  This game has duplicate Please check it :  Name =  Miami Bonus Wheel</t>
-  </si>
-  <si>
-    <t>625  This game has duplicate Please check it :  Name =  Miami Nights</t>
-  </si>
-  <si>
-    <t>626  This game has duplicate Please check it :  Name =  Million 7</t>
-  </si>
-  <si>
-    <t>627  This game has duplicate Please check it :  Name =  Misery Mining</t>
-  </si>
-  <si>
-    <t>628  This game has duplicate Please check it :  Name =  Moby Dick</t>
-  </si>
-  <si>
-    <t>629  This game has duplicate Please check it :  Name =  Money Mouse</t>
-  </si>
-  <si>
-    <t>630  This game has duplicate Please check it :  Name =  Money Wagon</t>
-  </si>
-  <si>
-    <t>631  This game has duplicate Please check it :  Name =  Monkey God</t>
-  </si>
-  <si>
-    <t>632  This game has duplicate Please check it :  Name =  Monkey’s Gold: xPays</t>
-  </si>
-  <si>
-    <t>633  This game has duplicate Please check it :  Name =  Mr. Vegas</t>
-  </si>
-  <si>
-    <t>634  This game has duplicate Please check it :  Name =  Muay Thai Champion</t>
-  </si>
-  <si>
-    <t>635  This game has duplicate Please check it :  Name =  Mysteries of Egypt</t>
-  </si>
-  <si>
-    <t>636  This game has duplicate Please check it :  Name =  Mystery Fox Christmas Party</t>
-  </si>
-  <si>
-    <t>637  This game has duplicate Please check it :  Name =  Mystery Jack Deluxe</t>
-  </si>
-  <si>
-    <t>638  This game has duplicate Please check it :  Name =  Ninja vs Samurai</t>
-  </si>
-  <si>
-    <t>639  This game has duplicate Please check it :  Name =  Oktoberfest</t>
-  </si>
-  <si>
-    <t>640  This game has duplicate Please check it :  Name =  Oktoberfest</t>
-  </si>
-  <si>
-    <t>641  This game has duplicate Please check it :  Name =  Oktoberfest</t>
-  </si>
-  <si>
-    <t>642  This game has duplicate Please check it :  Name =  One Million Megaways BC</t>
-  </si>
-  <si>
-    <t>643  This game has duplicate Please check it :  Name =  Origins Of Lilith</t>
-  </si>
-  <si>
-    <t>644  This game has duplicate Please check it :  Name =  Owls</t>
-  </si>
-  <si>
-    <t>645  This game has duplicate Please check it :  Name =  Paris Nights</t>
-  </si>
-  <si>
-    <t>646  This game has duplicate Please check it :  Name =  Pawprints of Purrsia</t>
-  </si>
-  <si>
-    <t>647  This game has duplicate Please check it :  Name =  Pearls of Aphrodite</t>
-  </si>
-  <si>
-    <t>648  This game has duplicate Please check it :  Name =  Phoenix Gold</t>
-  </si>
-  <si>
-    <t>649  This game has duplicate Please check it :  Name =  Phoenix Rises</t>
-  </si>
-  <si>
-    <t>650  This game has duplicate Please check it :  Name =  Pick-Nik Park</t>
-  </si>
-  <si>
-    <t>651  This game has duplicate Please check it :  Name =  Piggy Gold</t>
-  </si>
-  <si>
-    <t>652  This game has duplicate Please check it :  Name =  Pirate Armada</t>
-  </si>
-  <si>
-    <t>653  This game has duplicate Please check it :  Name =  Pirate Booty</t>
-  </si>
-  <si>
-    <t>654  This game has duplicate Please check it :  Name =  Pirate King</t>
-  </si>
-  <si>
-    <t>655  This game has duplicate Please check it :  Name =  Pixies vs Pirates</t>
-  </si>
-  <si>
-    <t>656  This game has duplicate Please check it :  Name =  Plushie Frenzy</t>
-  </si>
-  <si>
-    <t>657  This game has duplicate Please check it :  Name =  Poison Eve</t>
-  </si>
-  <si>
-    <t>658  This game has duplicate Please check it :  Name =  Power Strike - Super Spin</t>
-  </si>
-  <si>
-    <t>659  This game has duplicate Please check it :  Name =  Prosperity Lion</t>
-  </si>
-  <si>
-    <t>660  This game has duplicate Please check it :  Name =  Punk Rocker</t>
-  </si>
-  <si>
-    <t>661  This game has duplicate Please check it :  Name =  Punk Toilet</t>
-  </si>
-  <si>
-    <t>662  This game has duplicate Please check it :  Name =  Reel Diamonds</t>
-  </si>
-  <si>
-    <t>663  This game has duplicate Please check it :  Name =  Reel Hero</t>
-  </si>
-  <si>
-    <t>664  This game has duplicate Please check it :  Name =  Reel Holidays</t>
-  </si>
-  <si>
-    <t>665  This game has duplicate Please check it :  Name =  Reel Joke</t>
-  </si>
-  <si>
-    <t>666  This game has duplicate Please check it :  Name =  Reel Love</t>
-  </si>
-  <si>
-    <t>667  This game has duplicate Please check it :  Name =  Reels of Wealth</t>
-  </si>
-  <si>
-    <t>668  This game has duplicate Please check it :  Name =  Remember Gulag</t>
-  </si>
-  <si>
-    <t>669  This game has duplicate Please check it :  Name =  Riches of Midgard: Land and Expand</t>
-  </si>
-  <si>
-    <t>670  This game has duplicate Please check it :  Name =  Rio Bingo</t>
-  </si>
-  <si>
-    <t>671  This game has duplicate Please check it :  Name =  Rise of Egypt</t>
-  </si>
-  <si>
-    <t>672  This game has duplicate Please check it :  Name =  Rock the Reels Megaways</t>
-  </si>
-  <si>
-    <t>673  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>674  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>675  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>676  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>677  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>678  This game has duplicate Please check it :  Name =  Roulette</t>
-  </si>
-  <si>
-    <t>679  This game has duplicate Please check it :  Name =  Royal Crown</t>
-  </si>
-  <si>
-    <t>680  This game has duplicate Please check it :  Name =  Sadie Swift: Guns &amp; Glyphs</t>
-  </si>
-  <si>
-    <t>681  This game has duplicate Please check it :  Name =  Safari</t>
-  </si>
-  <si>
-    <t>682  This game has duplicate Please check it :  Name =  San Quentin xWays</t>
-  </si>
-  <si>
-    <t>683  This game has duplicate Please check it :  Name =  Scrolls of Aphrodite</t>
-  </si>
-  <si>
-    <t>684  This game has duplicate Please check it :  Name =  Secrets of Cleopatra</t>
-  </si>
-  <si>
-    <t>685  This game has duplicate Please check it :  Name =  Serengeti Kings</t>
-  </si>
-  <si>
-    <t>686  This game has duplicate Please check it :  Name =  Shaolin Soccer</t>
-  </si>
-  <si>
-    <t>687  This game has duplicate Please check it :  Name =  Silver Enchantress</t>
-  </si>
-  <si>
-    <t>688  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
-  </si>
-  <si>
-    <t>689  This game has duplicate Please check it :  Name =  Sizzling 777 Deluxe</t>
-  </si>
-  <si>
-    <t>690  This game has duplicate Please check it :  Name =  Sky Vault</t>
-  </si>
-  <si>
-    <t>691  This game has duplicate Please check it :  Name =  Slot Jam</t>
-  </si>
-  <si>
-    <t>692  This game has duplicate Please check it :  Name =  Slots Angels</t>
-  </si>
-  <si>
-    <t>693  This game has duplicate Please check it :  Name =  Snail Race</t>
-  </si>
-  <si>
-    <t>694  This game has duplicate Please check it :  Name =  Solar Queen</t>
-  </si>
-  <si>
-    <t>695  This game has duplicate Please check it :  Name =  Sonic Reels</t>
-  </si>
-  <si>
-    <t>696  This game has duplicate Please check it :  Name =  Space Force</t>
-  </si>
-  <si>
-    <t>697  This game has duplicate Please check it :  Name =  Space Gem™</t>
-  </si>
-  <si>
-    <t>698  This game has duplicate Please check it :  Name =  Speakeasy Boost</t>
-  </si>
-  <si>
-    <t>699  This game has duplicate Please check it :  Name =  Spectrum</t>
-  </si>
-  <si>
-    <t>700  This game has duplicate Please check it :  Name =  Spinlotto</t>
-  </si>
-  <si>
-    <t>701  This game has duplicate Please check it :  Name =  Starstruck</t>
-  </si>
-  <si>
-    <t>702  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>703  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>704  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>705  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>706  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>707  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>708  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>709  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>710  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>711  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>712  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>713  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>714  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>715  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>716  This game has duplicate Please check it :  Name =  Steam Tower</t>
-  </si>
-  <si>
-    <t>717  This game has duplicate Please check it :  Name =  Stellar Spins</t>
-  </si>
-  <si>
-    <t>718  This game has duplicate Please check it :  Name =  Stellar Ways</t>
-  </si>
-  <si>
-    <t>719  This game has duplicate Please check it :  Name =  Sun of Fortune</t>
-  </si>
-  <si>
-    <t>720  This game has duplicate Please check it :  Name =  Sunny Fruits: Hold and Win</t>
-  </si>
-  <si>
-    <t>721  This game has duplicate Please check it :  Name =  Super 10 Stars</t>
-  </si>
-  <si>
-    <t>722  This game has duplicate Please check it :  Name =  Super 5 Stars</t>
-  </si>
-  <si>
-    <t>723  This game has duplicate Please check it :  Name =  Super 7 Stars</t>
-  </si>
-  <si>
-    <t>724  This game has duplicate Please check it :  Name =  Super Boom</t>
-  </si>
-  <si>
-    <t>725  This game has duplicate Please check it :  Name =  Super Burning Wins</t>
-  </si>
-  <si>
-    <t>726  This game has duplicate Please check it :  Name =  Super Burning wins: Respin</t>
-  </si>
-  <si>
-    <t>727  This game has duplicate Please check it :  Name =  Super Lion</t>
-  </si>
-  <si>
-    <t>728  This game has duplicate Please check it :  Name =  Super Lucky Reels</t>
-  </si>
-  <si>
-    <t>729  This game has duplicate Please check it :  Name =  Super Multitimes Progressive</t>
-  </si>
-  <si>
-    <t>730  This game has duplicate Please check it :  Name =  Super Rainbow Megaways</t>
-  </si>
-  <si>
-    <t>731  This game has duplicate Please check it :  Name =  Surfin' Reels</t>
-  </si>
-  <si>
-    <t>732  This game has duplicate Please check it :  Name =  Symbols of Egypt</t>
-  </si>
-  <si>
-    <t>733  This game has duplicate Please check it :  Name =  Telly Reels</t>
-  </si>
-  <si>
-    <t>734  This game has duplicate Please check it :  Name =  Tesla Jolt</t>
-  </si>
-  <si>
-    <t>735  This game has duplicate Please check it :  Name =  Thai River Wonders</t>
-  </si>
-  <si>
-    <t>736  This game has duplicate Please check it :  Name =  The Asp Of Cleopatra</t>
-  </si>
-  <si>
-    <t>737  This game has duplicate Please check it :  Name =  The Big Deal</t>
-  </si>
-  <si>
-    <t>738  This game has duplicate Please check it :  Name =  The Creepy Carnival</t>
-  </si>
-  <si>
-    <t>739  This game has duplicate Please check it :  Name =  The Great Icescape</t>
-  </si>
-  <si>
-    <t>740  This game has duplicate Please check it :  Name =  The King</t>
-  </si>
-  <si>
-    <t>741  This game has duplicate Please check it :  Name =  The Legendary Red Dragon</t>
-  </si>
-  <si>
-    <t>742  This game has duplicate Please check it :  Name =  The Link</t>
-  </si>
-  <si>
-    <t>743  This game has duplicate Please check it :  Name =  The Secret Order</t>
-  </si>
-  <si>
-    <t>744  This game has duplicate Please check it :  Name =  The Travels of Marco</t>
-  </si>
-  <si>
-    <t>745  This game has duplicate Please check it :  Name =  Thor: Hammer Time</t>
-  </si>
-  <si>
-    <t>746  This game has duplicate Please check it :  Name =  Three Monkeys</t>
-  </si>
-  <si>
-    <t>747  This game has duplicate Please check it :  Name =  Tiger and Dragon</t>
-  </si>
-  <si>
-    <t>748  This game has duplicate Please check it :  Name =  Titan's Riches</t>
-  </si>
-  <si>
-    <t>749  This game has duplicate Please check it :  Name =  Tomb Of Nefertiti</t>
-  </si>
-  <si>
-    <t>750  This game has duplicate Please check it :  Name =  Tomb of the King</t>
-  </si>
-  <si>
-    <t>751  This game has duplicate Please check it :  Name =  Tombstone</t>
-  </si>
-  <si>
-    <t>752  This game has duplicate Please check it :  Name =  Tombstone R.I.P.</t>
-  </si>
-  <si>
-    <t>753  This game has duplicate Please check it :  Name =  Tractor Beam</t>
-  </si>
-  <si>
-    <t>754  This game has duplicate Please check it :  Name =  Treasures of Aztec</t>
-  </si>
-  <si>
-    <t>755  This game has duplicate Please check it :  Name =  Treasures of Egypt</t>
-  </si>
-  <si>
-    <t>756  This game has duplicate Please check it :  Name =  Tree of Fortune</t>
-  </si>
-  <si>
-    <t>757  This game has duplicate Please check it :  Name =  Tree of Fortune</t>
-  </si>
-  <si>
-    <t>758  This game has duplicate Please check it :  Name =  Tree of Fortune</t>
-  </si>
-  <si>
-    <t>759  This game has duplicate Please check it :  Name =  Tree of Gold</t>
-  </si>
-  <si>
-    <t>760  This game has duplicate Please check it :  Name =  Trick or Treat</t>
-  </si>
-  <si>
-    <t>761  This game has duplicate Please check it :  Name =  Triple Bar</t>
-  </si>
-  <si>
-    <t>762  This game has duplicate Please check it :  Name =  Triple Dragons</t>
-  </si>
-  <si>
-    <t>763  This game has duplicate Please check it :  Name =  Triple Fruit Deluxe Megaways</t>
-  </si>
-  <si>
-    <t>764  This game has duplicate Please check it :  Name =  True Grit Redemption</t>
-  </si>
-  <si>
-    <t>765  This game has duplicate Please check it :  Name =  Ultimate Super Reels</t>
-  </si>
-  <si>
-    <t>766  This game has duplicate Please check it :  Name =  Valhalla</t>
-  </si>
-  <si>
-    <t>767  This game has duplicate Please check it :  Name =  Valley of Pharaohs</t>
-  </si>
-  <si>
-    <t>768  This game has duplicate Please check it :  Name =  Valley of the Muses</t>
-  </si>
-  <si>
-    <t>769  This game has duplicate Please check it :  Name =  Vampires</t>
-  </si>
-  <si>
-    <t>770  This game has duplicate Please check it :  Name =  Van Helsing's Book of the Undead</t>
-  </si>
-  <si>
-    <t>771  This game has duplicate Please check it :  Name =  Vegas Blast</t>
-  </si>
-  <si>
-    <t>772  This game has duplicate Please check it :  Name =  Vegas VIP Gold</t>
-  </si>
-  <si>
-    <t>773  This game has duplicate Please check it :  Name =  Vegas Wins</t>
-  </si>
-  <si>
-    <t>774  This game has duplicate Please check it :  Name =  VIP Filthy Riches</t>
-  </si>
-  <si>
-    <t>775  This game has duplicate Please check it :  Name =  Viva Las Vegas</t>
-  </si>
-  <si>
-    <t>776  This game has duplicate Please check it :  Name =  Vomiting Unicorns</t>
-  </si>
-  <si>
-    <t>777  This game has duplicate Please check it :  Name =  Weight of the Gun</t>
-  </si>
-  <si>
-    <t>778  This game has duplicate Please check it :  Name =  Western wilds</t>
-  </si>
-  <si>
-    <t>779  This game has duplicate Please check it :  Name =  Wild Catch</t>
-  </si>
-  <si>
-    <t>780  This game has duplicate Please check it :  Name =  Wild Diamond 7x</t>
-  </si>
-  <si>
-    <t>781  This game has duplicate Please check it :  Name =  Wild Energy</t>
-  </si>
-  <si>
-    <t>782  This game has duplicate Please check it :  Name =  Wild Fireworks</t>
-  </si>
-  <si>
-    <t>783  This game has duplicate Please check it :  Name =  Wild Flower</t>
-  </si>
-  <si>
-    <t>784  This game has duplicate Please check it :  Name =  Wild Girls</t>
-  </si>
-  <si>
-    <t>785  This game has duplicate Please check it :  Name =  Wild Guns</t>
-  </si>
-  <si>
-    <t>786  This game has duplicate Please check it :  Name =  Wild Harlequin</t>
-  </si>
-  <si>
-    <t>787  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>788  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>789  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>790  This game has duplicate Please check it :  Name =  Wild Jester</t>
-  </si>
-  <si>
-    <t>791  This game has duplicate Please check it :  Name =  Wild Ocean</t>
-  </si>
-  <si>
-    <t>792  This game has duplicate Please check it :  Name =  Wild Pride</t>
-  </si>
-  <si>
-    <t>793  This game has duplicate Please check it :  Name =  Wild Warriors</t>
-  </si>
-  <si>
-    <t>794  This game has duplicate Please check it :  Name =  Wild West</t>
-  </si>
-  <si>
-    <t>795  This game has duplicate Please check it :  Name =  Wild West</t>
-  </si>
-  <si>
-    <t>796  This game has duplicate Please check it :  Name =  Wild West</t>
-  </si>
-  <si>
-    <t>797  This game has duplicate Please check it :  Name =  Witches Wild Brew</t>
-  </si>
-  <si>
-    <t>798  This game has duplicate Please check it :  Name =  Wixx</t>
-  </si>
-  <si>
-    <t>799  This game has duplicate Please check it :  Name =  Wolf Strike</t>
-  </si>
-  <si>
-    <t>800  This game has duplicate Please check it :  Name =  Wolf Strike</t>
-  </si>
-  <si>
-    <t>801  This game has duplicate Please check it :  Name =  Wolf Strike</t>
-  </si>
-  <si>
-    <t>802  This game has duplicate Please check it :  Name =  Wunderfest Deluxe</t>
-  </si>
-  <si>
-    <t>803  This game has duplicate Please check it :  Name =  Xpander</t>
-  </si>
-  <si>
-    <t>804  This game has duplicate Please check it :  Name =  xWays Hoarder xSplit</t>
-  </si>
-  <si>
-    <t>805  This game has duplicate Please check it :  Name =  Year Of The Tiger</t>
+    <t>616  This game has duplicate Please check it :  Name =  Manhattan Goes Wild</t>
+  </si>
+  <si>
+    <t>617  This game has duplicate Please check it :  Name =  Kitchen Drama: Sushi Mania</t>
+  </si>
+  <si>
+    <t>618  This game has duplicate Please check it :  Name =  Kitchen Drama: BBQ Frenzy</t>
+  </si>
+  <si>
+    <t>619  This game has duplicate Please check it :  Name =  Ice Ice Yeti</t>
+  </si>
+  <si>
+    <t>620  This game has duplicate Please check it :  Name =  Hot Nudge</t>
+  </si>
+  <si>
+    <t>621  This game has duplicate Please check it :  Name =  Hot 4 Cash!</t>
+  </si>
+  <si>
+    <t>622  This game has duplicate Please check it :  Name =  Dungeon Quest</t>
+  </si>
+  <si>
+    <t>623  This game has duplicate Please check it :  Name =  Coins of fortune</t>
+  </si>
+  <si>
+    <t>624  This game has duplicate Please check it :  Name =  Casino Win Spin</t>
+  </si>
+  <si>
+    <t>625  This game has duplicate Please check it :  Name =  Mayan Gold</t>
+  </si>
+  <si>
+    <t>626  This game has duplicate Please check it :  Name =  Book of Gold: Symbol Choice</t>
+  </si>
+  <si>
+    <t>627  This game has duplicate Please check it :  Name =  Phoenix Gold</t>
+  </si>
+  <si>
+    <t>628  This game has duplicate Please check it :  Name =  Christmas Deal</t>
+  </si>
+  <si>
+    <t>629  This game has duplicate Please check it :  Name =  Ho Ho Ho</t>
+  </si>
+  <si>
+    <t>630  This game has duplicate Please check it :  Name =  Ho Ho Ho</t>
+  </si>
+  <si>
+    <t>631  This game has duplicate Please check it :  Name =  Tomb of the King</t>
+  </si>
+  <si>
+    <t>632  This game has duplicate Please check it :  Name =  Vomiting Unicorns</t>
+  </si>
+  <si>
+    <t>633  This game has duplicate Please check it :  Name =  Poison Eve</t>
+  </si>
+  <si>
+    <t>634  This game has duplicate Please check it :  Name =  Snail Race</t>
+  </si>
+  <si>
+    <t>635  This game has duplicate Please check it :  Name =  Witches Wild Brew</t>
+  </si>
+  <si>
+    <t>636  This game has duplicate Please check it :  Name =  Larry the Leprechaun</t>
+  </si>
+  <si>
+    <t>637  This game has duplicate Please check it :  Name =  Magic Stars 9</t>
+  </si>
+  <si>
+    <t>638  This game has duplicate Please check it :  Name =  Lucky Reels™</t>
+  </si>
+  <si>
+    <t>639  This game has duplicate Please check it :  Name =  Dragons Lucky 8™</t>
+  </si>
+  <si>
+    <t>640  This game has duplicate Please check it :  Name =  Lucky Fish</t>
+  </si>
+  <si>
+    <t>641  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>642  This game has duplicate Please check it :  Name =  Wild Girls</t>
+  </si>
+  <si>
+    <t>643  This game has duplicate Please check it :  Name =  Lucky Fortune</t>
+  </si>
+  <si>
+    <t>644  This game has duplicate Please check it :  Name =  Lost Treasure</t>
+  </si>
+  <si>
+    <t>645  This game has duplicate Please check it :  Name =  Jack on Hold</t>
+  </si>
+  <si>
+    <t>646  This game has duplicate Please check it :  Name =  Golden Sphinx</t>
+  </si>
+  <si>
+    <t>647  This game has duplicate Please check it :  Name =  Demon Jack 27</t>
+  </si>
+  <si>
+    <t>648  This game has duplicate Please check it :  Name =  Crazy Cars</t>
+  </si>
+  <si>
+    <t>649  This game has duplicate Please check it :  Name =  Colin The Cat™</t>
+  </si>
+  <si>
+    <t>650  This game has duplicate Please check it :  Name =  Bell Wizard</t>
+  </si>
+  <si>
+    <t>651  This game has duplicate Please check it :  Name =  Beach Party Hot</t>
+  </si>
+  <si>
+    <t>652  This game has duplicate Please check it :  Name =  BARs&amp;7s</t>
+  </si>
+  <si>
+    <t>653  This game has duplicate Please check it :  Name =  Fruit Fiesta</t>
+  </si>
+  <si>
+    <t>654  This game has duplicate Please check it :  Name =  Double Tigers</t>
+  </si>
+  <si>
+    <t>655  This game has duplicate Please check it :  Name =  Fruits Go Bananas™</t>
+  </si>
+  <si>
+    <t>656  This game has duplicate Please check it :  Name =  Hot 777 Deluxe™</t>
+  </si>
+  <si>
+    <t>657  This game has duplicate Please check it :  Name =  Mayan Ritual™</t>
+  </si>
+  <si>
+    <t>658  This game has duplicate Please check it :  Name =  Black Horse™</t>
+  </si>
+  <si>
+    <t>659  This game has duplicate Please check it :  Name =  In The Forest</t>
+  </si>
+  <si>
+    <t>660  This game has duplicate Please check it :  Name =  Highschool Manga</t>
+  </si>
+  <si>
+    <t>661  This game has duplicate Please check it :  Name =  Haunted Hospital</t>
+  </si>
+  <si>
+    <t>662  This game has duplicate Please check it :  Name =  Hungry Shark</t>
+  </si>
+  <si>
+    <t>663  This game has duplicate Please check it :  Name =  Dino Reels 81</t>
+  </si>
+  <si>
+    <t>664  This game has duplicate Please check it :  Name =  Jumping Fruits</t>
+  </si>
+  <si>
+    <t>665  This game has duplicate Please check it :  Name =  Jackpot Builders</t>
+  </si>
+  <si>
+    <t>666  This game has duplicate Please check it :  Name =  Fenix Play Deluxe</t>
+  </si>
+  <si>
+    <t>667  This game has duplicate Please check it :  Name =  Jack's Ride</t>
+  </si>
+  <si>
+    <t>668  This game has duplicate Please check it :  Name =  Corrida Romance Deluxe</t>
+  </si>
+  <si>
+    <t>669  This game has duplicate Please check it :  Name =  Hot Party Deluxe</t>
+  </si>
+  <si>
+    <t>670  This game has duplicate Please check it :  Name =  Magic Fruits 4 Deluxe</t>
+  </si>
+  <si>
+    <t>671  This game has duplicate Please check it :  Name =  Spectrum</t>
+  </si>
+  <si>
+    <t>672  This game has duplicate Please check it :  Name =  Magic Stars 5</t>
+  </si>
+  <si>
+    <t>673  This game has duplicate Please check it :  Name =  Football Mania Deluxe</t>
+  </si>
+  <si>
+    <t>674  This game has duplicate Please check it :  Name =  Magic Stars 6</t>
+  </si>
+  <si>
+    <t>675  This game has duplicate Please check it :  Name =  Juicy Reels</t>
+  </si>
+  <si>
+    <t>676  This game has duplicate Please check it :  Name =  Magic of the Ring Deluxe</t>
+  </si>
+  <si>
+    <t>677  This game has duplicate Please check it :  Name =  Space Gem™</t>
+  </si>
+  <si>
+    <t>678  This game has duplicate Please check it :  Name =  Los Muertos™</t>
+  </si>
+  <si>
+    <t>679  This game has duplicate Please check it :  Name =  Great Book of Magic Deluxe</t>
+  </si>
+  <si>
+    <t>680  This game has duplicate Please check it :  Name =  Fruit Mania Deluxe</t>
+  </si>
+  <si>
+    <t>681  This game has duplicate Please check it :  Name =  9 Lions</t>
+  </si>
+  <si>
+    <t>682  This game has duplicate Please check it :  Name =  Wild Guns</t>
+  </si>
+  <si>
+    <t>683  This game has duplicate Please check it :  Name =  Mystery Jack Deluxe</t>
+  </si>
+  <si>
+    <t>684  This game has duplicate Please check it :  Name =  Valhalla</t>
+  </si>
+  <si>
+    <t>685  This game has duplicate Please check it :  Name =  Cube Mania Deluxe™</t>
+  </si>
+  <si>
+    <t>686  This game has duplicate Please check it :  Name =  Slot Jam</t>
+  </si>
+  <si>
+    <t>687  This game has duplicate Please check it :  Name =  Sizzling 777 Deluxe</t>
+  </si>
+  <si>
+    <t>688  This game has duplicate Please check it :  Name =  Magic Target Deluxe</t>
+  </si>
+  <si>
+    <t>689  This game has duplicate Please check it :  Name =  Magic Stars 3</t>
+  </si>
+  <si>
+    <t>690  This game has duplicate Please check it :  Name =  Magic Hot 4 Deluxe</t>
+  </si>
+  <si>
+    <t>691  This game has duplicate Please check it :  Name =  Magic Fruits Deluxe</t>
+  </si>
+  <si>
+    <t>692  This game has duplicate Please check it :  Name =  Highway to Hell Deluxe</t>
+  </si>
+  <si>
+    <t>693  This game has duplicate Please check it :  Name =  Dracula's Castle</t>
+  </si>
+  <si>
+    <t>694  This game has duplicate Please check it :  Name =  Burning Reels</t>
+  </si>
+  <si>
+    <t>695  This game has duplicate Please check it :  Name =  Black Hawk Deluxe</t>
+  </si>
+  <si>
+    <t>696  This game has duplicate Please check it :  Name =  Caesar's Glory</t>
+  </si>
+  <si>
+    <t>697  This game has duplicate Please check it :  Name =  Super Burning wins: Respin</t>
+  </si>
+  <si>
+    <t>698  This game has duplicate Please check it :  Name =  Imperial Fruits: 100 Lines</t>
+  </si>
+  <si>
+    <t>699  This game has duplicate Please check it :  Name =  Solar Queen</t>
+  </si>
+  <si>
+    <t>700  This game has duplicate Please check it :  Name =  Book of Gold: Classic</t>
+  </si>
+  <si>
+    <t>701  This game has duplicate Please check it :  Name =  Big Bounty Bill</t>
+  </si>
+  <si>
+    <t>702  This game has duplicate Please check it :  Name =  Blood Moon Express</t>
+  </si>
+  <si>
+    <t>703  This game has duplicate Please check it :  Name =  Legend of the 9 Suns</t>
+  </si>
+  <si>
+    <t>704  This game has duplicate Please check it :  Name =  Ho Ho Ho</t>
+  </si>
+  <si>
+    <t>705  This game has duplicate Please check it :  Name =  Golden Dragon</t>
+  </si>
+  <si>
+    <t>706  This game has duplicate Please check it :  Name =  Dia De Muertos</t>
+  </si>
+  <si>
+    <t>707  This game has duplicate Please check it :  Name =  Fruits &amp; Jokes 100 lines</t>
+  </si>
+  <si>
+    <t>708  This game has duplicate Please check it :  Name =  100 Joker Staxx</t>
+  </si>
+  <si>
+    <t>709  This game has duplicate Please check it :  Name =  Wild Warriors</t>
+  </si>
+  <si>
+    <t>710  This game has duplicate Please check it :  Name =  Book of Gold Double Chance</t>
+  </si>
+  <si>
+    <t>711  This game has duplicate Please check it :  Name =  Super Burning Wins</t>
+  </si>
+  <si>
+    <t>712  This game has duplicate Please check it :  Name =  Rise of Egypt</t>
+  </si>
+  <si>
+    <t>713  This game has duplicate Please check it :  Name =  Joker Expand: 5 Lines</t>
+  </si>
+  <si>
+    <t>714  This game has duplicate Please check it :  Name =  Burning Wins</t>
+  </si>
+  <si>
+    <t>715  This game has duplicate Please check it :  Name =  40 Joker Staxx</t>
+  </si>
+  <si>
+    <t>716  This game has duplicate Please check it :  Name =  Legend of Cleopatra</t>
+  </si>
+  <si>
+    <t>717  This game has duplicate Please check it :  Name =  Crystal Land</t>
+  </si>
+  <si>
+    <t>718  This game has duplicate Please check it :  Name =  Froots</t>
+  </si>
+  <si>
+    <t>719  This game has duplicate Please check it :  Name =  Fire vs Ice</t>
+  </si>
+  <si>
+    <t>720  This game has duplicate Please check it :  Name =  Fruits</t>
+  </si>
+  <si>
+    <t>721  This game has duplicate Please check it :  Name =  Tree of Gold</t>
+  </si>
+  <si>
+    <t>722  This game has duplicate Please check it :  Name =  Monkey God</t>
+  </si>
+  <si>
+    <t>723  This game has duplicate Please check it :  Name =  Goldfire 7s</t>
+  </si>
+  <si>
+    <t>724  This game has duplicate Please check it :  Name =  Gates of Babylon</t>
+  </si>
+  <si>
+    <t>725  This game has duplicate Please check it :  Name =  Double Joker</t>
+  </si>
+  <si>
+    <t>726  This game has duplicate Please check it :  Name =  Dino Odyssey</t>
+  </si>
+  <si>
+    <t>727  This game has duplicate Please check it :  Name =  Burning Diamonds</t>
+  </si>
+  <si>
+    <t>728  This game has duplicate Please check it :  Name =  Age of Ice Dragons</t>
+  </si>
+  <si>
+    <t>729  This game has duplicate Please check it :  Name =  Coin Conqueror</t>
+  </si>
+  <si>
+    <t>730  This game has duplicate Please check it :  Name =  Space Force</t>
+  </si>
+  <si>
+    <t>731  This game has duplicate Please check it :  Name =  The Link</t>
+  </si>
+  <si>
+    <t>732  This game has duplicate Please check it :  Name =  Surfin' Reels</t>
+  </si>
+  <si>
+    <t>733  This game has duplicate Please check it :  Name =  Leprechaun's Lucky Barrel</t>
+  </si>
+  <si>
+    <t>734  This game has duplicate Please check it :  Name =  Pirate Booty</t>
+  </si>
+  <si>
+    <t>735  This game has duplicate Please check it :  Name =  Gold Vein</t>
+  </si>
+  <si>
+    <t>736  This game has duplicate Please check it :  Name =  VIP Filthy Riches</t>
+  </si>
+  <si>
+    <t>737  This game has duplicate Please check it :  Name =  Wild Ocean</t>
+  </si>
+  <si>
+    <t>738  This game has duplicate Please check it :  Name =  Super Boom</t>
+  </si>
+  <si>
+    <t>739  This game has duplicate Please check it :  Name =  Golden Lucky Pigs</t>
+  </si>
+  <si>
+    <t>740  This game has duplicate Please check it :  Name =  Stellar Spins</t>
+  </si>
+  <si>
+    <t>741  This game has duplicate Please check it :  Name =  Wild Pride</t>
+  </si>
+  <si>
+    <t>742  This game has duplicate Please check it :  Name =  Wild Jester</t>
+  </si>
+  <si>
+    <t>743  This game has duplicate Please check it :  Name =  Valley of Pharaohs</t>
+  </si>
+  <si>
+    <t>744  This game has duplicate Please check it :  Name =  Paris Nights</t>
+  </si>
+  <si>
+    <t>745  This game has duplicate Please check it :  Name =  Golden Profits</t>
+  </si>
+  <si>
+    <t>746  This game has duplicate Please check it :  Name =  Feng Shui Kitties</t>
+  </si>
+  <si>
+    <t>747  This game has duplicate Please check it :  Name =  Disco Bar 7s</t>
+  </si>
+  <si>
+    <t>748  This game has duplicate Please check it :  Name =  Vegas Wins</t>
+  </si>
+  <si>
+    <t>749  This game has duplicate Please check it :  Name =  Lava Loca</t>
+  </si>
+  <si>
+    <t>750  This game has duplicate Please check it :  Name =  Wild Diamond 7x</t>
+  </si>
+  <si>
+    <t>751  This game has duplicate Please check it :  Name =  Miami Nights</t>
+  </si>
+  <si>
+    <t>752  This game has duplicate Please check it :  Name =  Vegas VIP Gold</t>
+  </si>
+  <si>
+    <t>753  This game has duplicate Please check it :  Name =  Wunderfest Deluxe</t>
+  </si>
+  <si>
+    <t>754  This game has duplicate Please check it :  Name =  Cuba Caliente</t>
+  </si>
+  <si>
+    <t>755  This game has duplicate Please check it :  Name =  Crazy Bananas</t>
+  </si>
+  <si>
+    <t>756  This game has duplicate Please check it :  Name =  Colossal Vikings</t>
+  </si>
+  <si>
+    <t>757  This game has duplicate Please check it :  Name =  Classico</t>
+  </si>
+  <si>
+    <t>758  This game has duplicate Please check it :  Name =  Cheeky Monkeys</t>
+  </si>
+  <si>
+    <t>759  This game has duplicate Please check it :  Name =  Booming Bars</t>
+  </si>
+  <si>
+    <t>760  This game has duplicate Please check it :  Name =  Booming Bananas</t>
+  </si>
+  <si>
+    <t>761  This game has duplicate Please check it :  Name =  Big Apple Wins</t>
+  </si>
+  <si>
+    <t>762  This game has duplicate Please check it :  Name =  Barnyard Twister</t>
+  </si>
+  <si>
+    <t>763  This game has duplicate Please check it :  Name =  Aztec Palace</t>
+  </si>
+  <si>
+    <t>764  This game has duplicate Please check it :  Name =  Astro Pandas</t>
+  </si>
+  <si>
+    <t>765  This game has duplicate Please check it :  Name =  Age of Dragons</t>
+  </si>
+  <si>
+    <t>766  This game has duplicate Please check it :  Name =  The Big Deal</t>
+  </si>
+  <si>
+    <t>767  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
+  </si>
+  <si>
+    <t>768  This game has duplicate Please check it :  Name =  Lucky Clover</t>
+  </si>
+  <si>
+    <t>769  This game has duplicate Please check it :  Name =  Triple Dragons</t>
+  </si>
+  <si>
+    <t>770  This game has duplicate Please check it :  Name =  Fairy Dust</t>
+  </si>
+  <si>
+    <t>771  This game has duplicate Please check it :  Name =  Pirate King</t>
+  </si>
+  <si>
+    <t>772  This game has duplicate Please check it :  Name =  Safari</t>
+  </si>
+  <si>
+    <t>773  This game has duplicate Please check it :  Name =  Cai Yuan Guang Jin</t>
+  </si>
+  <si>
+    <t>774  This game has duplicate Please check it :  Name =  Charms &amp; Clovers</t>
+  </si>
+  <si>
+    <t>775  This game has duplicate Please check it :  Name =  Reels of Wealth</t>
+  </si>
+  <si>
+    <t>776  This game has duplicate Please check it :  Name =  Matsuri</t>
+  </si>
+  <si>
+    <t>777  This game has duplicate Please check it :  Name =  Double Fortune</t>
+  </si>
+  <si>
+    <t>778  This game has duplicate Please check it :  Name =  Book of Spells</t>
+  </si>
+  <si>
+    <t>779  This game has duplicate Please check it :  Name =  Tree of Fortune</t>
+  </si>
+  <si>
+    <t>780  This game has duplicate Please check it :  Name =  Lucky Koi</t>
+  </si>
+  <si>
+    <t>781  This game has duplicate Please check it :  Name =  Enchanting Spells</t>
+  </si>
+  <si>
+    <t>782  This game has duplicate Please check it :  Name =  Moby Dick</t>
+  </si>
+  <si>
+    <t>783  This game has duplicate Please check it :  Name =  Treasures of Egypt</t>
+  </si>
+  <si>
+    <t>784  This game has duplicate Please check it :  Name =  The King</t>
+  </si>
+  <si>
+    <t>785  This game has duplicate Please check it :  Name =  Haunted House</t>
+  </si>
+  <si>
+    <t>786  This game has duplicate Please check it :  Name =  San Quentin xWays</t>
+  </si>
+  <si>
+    <t>787  This game has duplicate Please check it :  Name =  Monkey’s Gold: xPays</t>
+  </si>
+  <si>
+    <t>788  This game has duplicate Please check it :  Name =  Buffalo Hunter</t>
+  </si>
+  <si>
+    <t>789  This game has duplicate Please check it :  Name =  Golden Genie &amp; the Walking Wild</t>
+  </si>
+  <si>
+    <t>790  This game has duplicate Please check it :  Name =  Medusa</t>
+  </si>
+  <si>
+    <t>791  This game has duplicate Please check it :  Name =  Fruit Mania</t>
+  </si>
+  <si>
+    <t>792  This game has duplicate Please check it :  Name =  Lucky Leprechaun</t>
+  </si>
+  <si>
+    <t>793  This game has duplicate Please check it :  Name =  Karen Maneater</t>
+  </si>
+  <si>
+    <t>794  This game has duplicate Please check it :  Name =  Remember Gulag</t>
+  </si>
+  <si>
+    <t>795  This game has duplicate Please check it :  Name =  Legion X</t>
+  </si>
+  <si>
+    <t>796  This game has duplicate Please check it :  Name =  Xpander</t>
+  </si>
+  <si>
+    <t>797  This game has duplicate Please check it :  Name =  Pick-Nik Park</t>
+  </si>
+  <si>
+    <t>798  This game has duplicate Please check it :  Name =  Silver Enchantress</t>
+  </si>
+  <si>
+    <t>799  This game has duplicate Please check it :  Name =  Bikini Paradise</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A805"/>
+  <dimension ref="A1:A799"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6475,36 +6457,6 @@
         <v>798</v>
       </c>
     </row>
-    <row r="800">
-      <c r="A800" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="s">
-        <v>804</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
